--- a/publipostage2/00cxy0s05/liste_essais_cliniques_identifies_00cxy0s05.xlsx
+++ b/publipostage2/00cxy0s05/liste_essais_cliniques_identifies_00cxy0s05.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/00cxy0s05/liste_essais_cliniques_identifies_00cxy0s05.xlsx
+++ b/publipostage2/00cxy0s05/liste_essais_cliniques_identifies_00cxy0s05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L109"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,32 +513,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT00213486</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2004</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Weekly Cisplatin/Irinotecan and Radiotherapy in Patients With Locally Advanced Esophageal Cancer: Phase II Trial</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -552,32 +562,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT00120588</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2005</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Effect of Magnesium Sulfate on the Incidence of Periventricular Leukomalacia in the Very Preterm Neonate</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
         <v>1</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -596,32 +611,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT00213434</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Prospective Evaluation of Mandibular Advancement by Herbst Device in the Treatment of Moderate Obstructive Sleep Apnea Syndrome</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -640,32 +660,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT00234234</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Predictors of the Response to Adalimumab in Rheumatoid Arthritis</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="b">
         <v>1</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -684,36 +709,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT00213499</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Randomized Prospective Multicenter Study of Non Invasive Ventilation Assessment for Weaning From Mechanical Ventilation in Patients With Chronic Respiratory Failure. NIV and Weaning (VENISE)Trial.</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>VENISE</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
         <v>1</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -732,32 +762,37 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT00213551</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Comparative Effects of Glutamine and Glucose on Intestinal Protein Metabolism in Healthy Humans</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
         <v>1</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -776,32 +811,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>NCT00213512</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Traitment of Patients Presenting Pemphigus With Anti CD20 (Mabthera).</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="b">
         <v>1</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -820,36 +860,41 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>NCT02170454</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Effect of Pharyngeal Cortical Area Inhibition Induced by rTMS on Swallowing Function in Healthy Subject: Video Fluoroscopic Study.</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>rTMSvideoSS</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -868,32 +913,37 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>NCT00263900</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Exploratory Study of the Use of the Quick Diagnostic Test of the Influenza and the Infection With RSV by the Paediatric Emergency Unit and Their Impact on the Assumption of Responsibility of the Suspect Children of a Viral Infection</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -912,32 +962,37 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>NCT00389116</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Value of CT-Scan and Oral Gastrografin in the Management of Post Operative Small Bowel Obstruction</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -956,36 +1011,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>NCT00977223</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Pilot Study of the Action of the Substance P Antagonist Aprepitant on Aldosterone and Cortisol Secretion in Healthy Volunteers.</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>APHOS</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
       <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
         <v>1</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1004,32 +1064,37 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>NCT01345890</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Neuromodulation in Post Stroke Dysphagia</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1048,36 +1113,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>NCT00213629</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Transcriptome Analysis Through a Dedicated Macro-array and TcLandscape Repertoire Analysis for Diagnosis of Myositis.</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>MYOARRAY</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1096,32 +1166,37 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>NCT00213616</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Bilateral Laryngeal Paralysis Reinnervation. Speech and Ventilatory Results Analysis</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1140,36 +1215,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>NCT01016925</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Bacterial Colonization After Tunneling in Femoral Perineural Catheters</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>Tunnelized KT</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1188,36 +1268,41 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>NCT00977652</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Short Term Efficacy of Percutaneous Tibial Nerve Stimulation for the Treatment of Fecal Incontinence:Randomized Controlled Study</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>TENSIA</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1236,36 +1321,41 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>NCT01081444</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Effect of Pharyngeal Inhibition Induced by Repetitive Transcranial Stimulation in Post Stroke Dysphagia</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>rTMS AVC</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1284,36 +1374,41 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>NCT00877578</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Efficacy of a Special Oral Nutritional Supplement on Nutritional Status of Malnourished Elderly Patients</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>Nutri-PA</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
       <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>DIETARY_SUPPLEMENT</t>
         </is>
@@ -1332,32 +1427,37 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>NCT00620724</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Maintenance Oral Nifedipine for Management of Symptomatic Placenta Previa : A Randomized Clinical Trial</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="b">
         <v>0</v>
       </c>
       <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" t="b">
         <v>1</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1376,36 +1476,41 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>NCT01299857</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>EVALUATION CLINIQUE ET BIOLOGIQUE A LONG TERME DES PATIENTS ATTEINTS DE FORMES SEVERES DE PEMPHIGUS TRAITES PAR LE RITUXIMAB</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>Suiviritux</t>
         </is>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1424,36 +1529,41 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>NCT01565577</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Phase 3, Vaccinal Activity Assessment of MenBVac Against Nesseiria Menigitidis B:14,P1.7,16 Strain in Child Vaccinated With MenBVac®</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>Exten MenbVac</t>
         </is>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1472,36 +1582,41 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>NCT01029275</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Multicenter, Randomised Open Trial Comparing the Efficacy of a Medical Treatment With Sandostatin LP 30 mg Performed Before Surgery to a Prime Line transsphenoïdal Surgery in Previously Untreated Acromegalic Patients With Either a Micro or a Macro Pituitary Adenoma</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>SAPORO</t>
         </is>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
       <c r="J23" t="b">
         <v>0</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1520,36 +1635,41 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>NCT01081457</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Effect of Deep Brain Stimulation on Voluntary and Involuntary Gastrointestinal Motility in Parkinson's Disease</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>SCP-Comodig</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
       <c r="J24" t="b">
         <v>0</v>
       </c>
       <c r="K24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" t="b">
         <v>1</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1568,32 +1688,37 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>NCT02320916</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>A Randomized Controlled Trial on the Effect of Needle Gauge on the Pain and Anxiety Experienced During Arterial Puncture</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="b">
         <v>1</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1612,32 +1737,37 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>NCT01103206</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Evaluation of a Parathyroid Hormone Suppression Test With Cinacalcet. Comparison: 1- With the Results of the Intravenous Calcium Suppression Test in Healthy Controls; 2- Between Healthy Controls and Patients With Primary Hyperparathyroidism.</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="b">
         <v>0</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1656,36 +1786,41 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>NCT00525616</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Assessment of Rituximab Efficiency and Tolerance in Treatment of Bullous Pemphigoid.</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>Rituximab2</t>
         </is>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
       <c r="J27" t="b">
         <v>0</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1704,36 +1839,41 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>NCT02110329</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Simultaneous Detection of Somatic Quantitative Molecular Alterations Using the Qantitative Multiplex Pcr of Short Fluorescent Fragments Method (QMPSF) in Stage II-III Colon Cancer: a Prospective Study</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>Code Barre</t>
         </is>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
       <c r="J28" t="b">
         <v>0</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>GENETIC</t>
         </is>
@@ -1752,36 +1892,41 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>NCT01304576</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Orientation Agnosia: Neuropsychological Evaluation, Associated Symptoms, Clinical and Anatomical Correlations</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>AGNORIENT</t>
         </is>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
       <c r="J29" t="b">
         <v>0</v>
       </c>
       <c r="K29" t="b">
         <v>0</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -1800,32 +1945,37 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>NCT01801605</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Does Repetitive Transcranial Magnetic Stimulation (rTMS) Reduce Rectal Hypersensitivity in Patients With IBS ?</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="b">
         <v>0</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1842,38 +1992,43 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
         <is>
           <t>2006-005576-40</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Etude de faisabilité de 2 phases II parallèles pré et post-gastrectomie : étude de faisabilité d'un traitement de chimiothérapie et radiothérapie pré-opératoire de l'adénocarcinome gastrique (LV5FU2s + Irinotecan - Radiochimiothérapie + 5FU IV continu) et étude de faisabilité d'un traitement de chimiothérapie et radiothérapie post-opératoire de l'adénocarcinome gastrique (LV5FU2s + Irinotecan - Radiochimiothérapie + 5FU IV continu)</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>TRACE</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
       </c>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1888,36 +2043,41 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>NCT01350297</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Phrenic Reinnervation in Central Ventilatory Paralysis Due to Medullary Trauma With Phrenic Motoneuron Destruction</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>TETRADIA-UNI</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
       <c r="J32" t="b">
         <v>0</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1936,36 +2096,41 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>NCT01057953</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Oligogenic Determinism of Colorectal Cancer</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>DOCC</t>
         </is>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
       <c r="J33" t="b">
         <v>0</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>GENETIC</t>
         </is>
@@ -1984,36 +2149,41 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>NCT00692393</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Primary vs. Secondary Anastomosis After Sigmoid Colon Resection for Perforated Diverticulitis (Hinchey Stage III and IV): a Prospective Multicentric Randomized Trial</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>DIVERTI</t>
         </is>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
       <c r="J34" t="b">
         <v>0</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2032,36 +2202,41 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>NCT01220388</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Pilot Study of the Action L-lysine on Aldosterone and Cortisol Secretion in Healthy Volunteers.</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>L-Lysine</t>
         </is>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
       <c r="J35" t="b">
         <v>0</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>DIETARY_SUPPLEMENT</t>
         </is>
@@ -2080,36 +2255,41 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>NCT02171377</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Quadricipital Electrical Stimulation in COPD Patients Rehabilitation</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>Reha-Res</t>
         </is>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
       <c r="J36" t="b">
         <v>0</v>
       </c>
       <c r="K36" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" t="b">
         <v>1</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2128,36 +2308,41 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>NCT01936597</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Prospective Study of 3 Phone Assistance Strategies to Achieve a Continuous Cardiac Massage During Training in Non-hospital Cardiac Cases.</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>TeleMacc</t>
         </is>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
       <c r="J37" t="b">
         <v>0</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2176,36 +2361,41 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>NCT01765374</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Study of Sonographic Efficacy of Rituximab in Rheumatoid Arthritis</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>SEWORRA</t>
         </is>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
       <c r="J38" t="b">
         <v>0</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2224,36 +2414,41 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>NCT01712581</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Determination of Myocardial Relaxation Times Values in Healthy Volunters</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>HeartMS</t>
         </is>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
       <c r="J39" t="b">
         <v>0</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2272,36 +2467,41 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>NCT01566188</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Cardiovascular Impact of Omega-3 Dietary Supplement From Vegetal Origin in Hypertension Associated With Metabolic Syndrome</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>CARDIOMEGA</t>
         </is>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
       <c r="J40" t="b">
         <v>0</v>
       </c>
       <c r="K40" t="b">
         <v>0</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>DIETARY_SUPPLEMENT</t>
         </is>
@@ -2320,36 +2520,41 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>NCT02170506</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Effect of Sub-mental Sensitive Transcutaneous Electrical Stimulation on Pharyngeal Muscles Control</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>TENSVIRT</t>
         </is>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
       <c r="J41" t="b">
         <v>0</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2368,36 +2573,41 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>NCT01330745</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Mesenteric Microcirculatory Function Study Through Sublingual Evaluation During Cardiopulmonary Bypass</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>MICROCARD</t>
         </is>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
       <c r="J42" t="b">
         <v>0</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2416,36 +2626,41 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>NCT00811915</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>A Prospective, Comparative, Multicenter, Randomized Study to Compare the Safety and Efficacy of Sirolimus (Rapamune) to Tacrolimus (Advagraf) Associated to Mycophenolate Mofetil (CellCept) Between 12 and 36 Months After Kidney Transplantation</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>EPARGNE</t>
         </is>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
       <c r="J43" t="b">
         <v>0</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2464,36 +2679,41 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>NCT02086253</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Role of Endothelin-1 in Mediating Flow-mediated Dilatation of Conduit Arteries During Sustained Hyperemic Stimulation</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>Endothelin</t>
         </is>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
       <c r="J44" t="b">
         <v>0</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2512,36 +2732,41 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>NCT02570464</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Aortic Cross-Clamping and Systemic Inflammatory Response in Humans: Effect of Ischemic Preconditioning</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>CLARIS</t>
         </is>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
       <c r="J45" t="b">
         <v>0</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -2560,36 +2785,41 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>NCT01326416</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Evaluation of the Impact of Physical Reconditioning Associated With Specific Nutritional Supplementation in Obese Patients Suffering From Metabolic Syndrome. OBEFITT Study.</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>OBEFITT</t>
         </is>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
       <c r="J46" t="b">
         <v>0</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>DIETARY_SUPPLEMENT</t>
         </is>
@@ -2608,28 +2838,33 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>NCT01275560</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="b">
         <v>0</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="L47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2648,28 +2883,30 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>NCT01523522</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Etude de l'efficacité et de la sécurité d'Injections Intra-sphinctériennes de Myoblastes Autologues Chez Des Patients Atteints d'Incontinence Anale sévère Par Insuffisance sphinctérienne</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>MIAS</t>
         </is>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
       </c>
       <c r="J48" t="b">
         <v>1</v>
@@ -2677,7 +2914,10 @@
       <c r="K48" t="b">
         <v>1</v>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="L48" t="b">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2696,36 +2936,41 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>NCT01686347</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Epidural Analgesia and Troubles of Fetal Cardiaq Rythm : Effect of the Systemic Transfer of Ropivacaine and Sufentanil</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>epidarc</t>
         </is>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
       <c r="J49" t="b">
         <v>0</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="L49" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2744,36 +2989,41 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>NCT01426659</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Evaluation of Language and Sensorimotor Constraints of Very Premature Babies at the Age of 3 Years 1 / 2 Without Cerebral Palsy. Randomised Study of Stimulation Training Implicit in Children Vulnerable</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>LAMOPRESCO</t>
         </is>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
       <c r="J50" t="b">
         <v>0</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="L50" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -2792,36 +3042,41 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>NCT00903799</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Clinical Efficacy and Efficiency of Gastric Electrical Stimulation (Enterra®) for Refractory Nausea and/or Vomiting</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>ENTERRA</t>
         </is>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
       <c r="J51" t="b">
         <v>0</v>
       </c>
       <c r="K51" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" t="b">
         <v>1</v>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="M51" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2840,36 +3095,41 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>NCT01707732</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Adjusted Value of Thromboprophylaxis in Hospitalized Obese Patients: A Comparative Study of Two Regimens of Enoxaparin</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>ITOHENOX</t>
         </is>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
       <c r="J52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="b">
         <v>1</v>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="L52" t="b">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2888,36 +3148,41 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>NCT02029859</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Sleep Apnea, Obesity and Pregnancy</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>GOS</t>
         </is>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
       <c r="J53" t="b">
         <v>0</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2936,36 +3201,41 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>NCT02556320</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Immunological and Viral Parameters in Patients Receiving Anti-epileptic Drugs</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>VIRIDAE</t>
         </is>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
       <c r="J54" t="b">
         <v>0</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -2984,36 +3254,41 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>NCT02231827</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>A Study of the Balance Control During Gait : Comparison of Data Acquisition Between Force Plate and 3D Optoelectronic Gait Analysis System</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>FREINAGE3D</t>
         </is>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
       <c r="J55" t="b">
         <v>0</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3032,28 +3307,30 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>NCT00784589</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>Comparison Between Monoclonal Antibody CD20 Treatment (Rituximab (mabthéra))and General Corticotherapy Treatment in Patients With Pemphigus</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>Rituximab 3</t>
         </is>
-      </c>
-      <c r="I56" t="b">
-        <v>1</v>
       </c>
       <c r="J56" t="b">
         <v>1</v>
@@ -3061,7 +3338,10 @@
       <c r="K56" t="b">
         <v>1</v>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="L56" t="b">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3080,32 +3360,37 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>NCT01352910</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr">
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
         <is>
           <t>PARALYSTIM</t>
         </is>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
       <c r="J57" t="b">
         <v>0</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3124,36 +3409,41 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>NCT02555566</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Role of Epoxyeicosatrienoic Acids in Chronic Allograft Nephropathy</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>TRANSPLANTEETs</t>
         </is>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
       <c r="J58" t="b">
         <v>0</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="L58" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3172,36 +3462,41 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>NCT01931579</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>Assessment of Probe Based Confocal Laser Endo-microscopy for In-vivo Diagnosis of Peripheral Lung Nodules and Masses. "NODIVEM" Study</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>NODIVEM</t>
         </is>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
       <c r="J59" t="b">
         <v>0</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="L59" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3220,36 +3515,41 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>NCT01588288</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>Diagnosis Interest of Galectin 3 Dosage in Nodular and Multinodular Goiter Pretreatment</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>Galectins</t>
         </is>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
       <c r="J60" t="b">
         <v>0</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="L60" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3268,36 +3568,41 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>NCT01594463</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>Third Trimester Routine Ultrasound in Low-risk Pregnancies : Comparison of Two Timing Periods Procedure for Screening Intrauterine Growth Restriction</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>RECRET</t>
         </is>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
       <c r="J61" t="b">
         <v>0</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="L61" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3314,38 +3619,43 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
         <is>
           <t>2009-009155-37</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Evaluation of the impact of physical reconditioning associated with specific nutritional supplementation in obese patients suffering of metabolic syndrome.</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>OBEFITT</t>
         </is>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
       <c r="J62" t="b">
         <v>0</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
       </c>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3360,36 +3670,41 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>NCT02001649</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Genetic Variants Associated With Adolescent Suicide Attempts: a Candidate-gene Association Study.</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>VGTSA</t>
         </is>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
       <c r="J63" t="b">
         <v>0</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="L63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>GENETIC</t>
         </is>
@@ -3408,36 +3723,41 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>NCT02557061</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Prognostic Value of the Lymphocytic Infiltrate in Colon Cancers</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>TIL</t>
         </is>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
       <c r="J64" t="b">
         <v>0</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="L64" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -3456,28 +3776,33 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>NCT01638845</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="b">
         <v>0</v>
       </c>
       <c r="K65" t="b">
+        <v>0</v>
+      </c>
+      <c r="L65" t="b">
         <v>1</v>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="M65" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3496,36 +3821,41 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>NCT02272166</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>Effects of Propofol on Early Recovery of Hunger After Ambulatory Surgery Compared With Sevoflurane</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>Propo-Faim</t>
         </is>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
       <c r="J66" t="b">
         <v>0</v>
       </c>
       <c r="K66" t="b">
+        <v>0</v>
+      </c>
+      <c r="L66" t="b">
         <v>1</v>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="M66" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3544,36 +3874,41 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>NCT01212510</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>Study of Circulating Markers in Serum of Patients Treated for Metastatic Colorectal Cancer</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>Coca-Colon</t>
         </is>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
       <c r="J67" t="b">
         <v>0</v>
       </c>
       <c r="K67" t="b">
+        <v>0</v>
+      </c>
+      <c r="L67" t="b">
         <v>1</v>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="M67" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3592,36 +3927,41 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>NCT02311075</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>Determination of the Mechanisms Involved in Conduit Artery Endothelial Dysfunction in Type 2 Diabetes</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>DIAB-EETs</t>
         </is>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
       <c r="J68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" t="b">
         <v>1</v>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="L68" t="b">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -3640,28 +3980,30 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>NCT02295514</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>Correlation Between PTP1B Expression and Organ Failure During Sepsis</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>SEPP1B</t>
         </is>
-      </c>
-      <c r="I69" t="b">
-        <v>1</v>
       </c>
       <c r="J69" t="b">
         <v>1</v>
@@ -3669,7 +4011,10 @@
       <c r="K69" t="b">
         <v>1</v>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="L69" t="b">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -3688,32 +4033,37 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>NCT01610973</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>Comparison of Manual and Automated Techniques in Achieving Posterior Lamellar Transplantation of the Cornea</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="b">
         <v>0</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="L70" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3732,36 +4082,41 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>NCT02004860</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>Phase 3 : Tacrolimus Ointment Interest (PROTOPIC ®) in the Maintenance Treatment of Severe Seborrheic Dermatitis on Adult Face</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>Disease</t>
         </is>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
       <c r="J71" t="b">
         <v>0</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="L71" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3780,36 +4135,41 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>NCT02664389</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>Targeted Next-generation Sequencing Panel for Identification of Germline Mutations in Early Onset Cancers With Sporadic or Hereditary Presentation</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>PANEL</t>
         </is>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
       <c r="J72" t="b">
         <v>0</v>
       </c>
       <c r="K72" t="b">
         <v>0</v>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="L72" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
           <t>GENETIC</t>
         </is>
@@ -3828,28 +4188,33 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>NCT02594722</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
-      <c r="I73" t="b">
-        <v>1</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="b">
         <v>1</v>
       </c>
       <c r="K73" t="b">
         <v>1</v>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="L73" t="b">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3868,36 +4233,41 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>NCT02037191</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>RANDOMIZED DOUBLE-BLIND STUDY MULTICENTRIQUE TESTING THE EFFICIENCY OF the METHOTREXATE AT PATIENTS AFFECTED BY GRAVE PELADE (METHOTREXATE VERSUS PLACEBO WITH SECONDARY TREATMENT BY METHOTREXATE and PREDNISONE)</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>MP3</t>
         </is>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
       <c r="J74" t="b">
         <v>0</v>
       </c>
       <c r="K74" t="b">
         <v>0</v>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="L74" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3916,36 +4286,41 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>NCT01340001</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>Effects of Nucleus Basalis of Meynert Area Electrical Stimulation on Cognitive Behavioral Disorders in Dementia With Lewy Bodies : A Pilot Phase 1 Study</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>DEMENSTIM</t>
         </is>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
       <c r="J75" t="b">
         <v>0</v>
       </c>
       <c r="K75" t="b">
+        <v>0</v>
+      </c>
+      <c r="L75" t="b">
         <v>1</v>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="M75" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3964,28 +4339,33 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>NCT02920684</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
-      <c r="I76" t="b">
-        <v>1</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="b">
         <v>1</v>
       </c>
       <c r="K76" t="b">
         <v>1</v>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="L76" t="b">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4004,36 +4384,41 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>NCT02988570</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>Study on the Phenotype of Language in Preterm Born Children at 5 Years of Age</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>EPILANG2</t>
         </is>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
       <c r="J77" t="b">
         <v>0</v>
       </c>
       <c r="K77" t="b">
         <v>0</v>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="L77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -4052,36 +4437,41 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>NCT01690585</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>Efficacy of Parenteral Iron Supplementation After Gastrointestinal Bleeding in Subjects Over 65</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>FerHem</t>
         </is>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
       <c r="J78" t="b">
         <v>0</v>
       </c>
       <c r="K78" t="b">
         <v>0</v>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="L78" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4100,36 +4490,41 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>NCT02353702</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>Efficacy of Parietal Continuous Infiltration of Local Anesthesic on Diaphragmatic Function After Upper Abdominal Surgery Through a Subcostal Incision</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>CATPAR</t>
         </is>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
       <c r="J79" t="b">
         <v>0</v>
       </c>
       <c r="K79" t="b">
         <v>0</v>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="L79" t="b">
+        <v>0</v>
+      </c>
+      <c r="M79" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4148,36 +4543,41 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>NCT02170467</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr">
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>Study of Intestinal Permeability in Patients With Anorexia Nervosa</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>PIANO</t>
         </is>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
       <c r="J80" t="b">
         <v>0</v>
       </c>
       <c r="K80" t="b">
         <v>0</v>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="L80" t="b">
+        <v>0</v>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4196,36 +4596,41 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>NCT03750058</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr">
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>AXONE -Acute : Acute Assessment of a Micro Multipolar Lead for Enhanced Cardiac Resynchronisation Therapy</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>AXONE-Acute</t>
         </is>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
       <c r="J81" t="b">
         <v>0</v>
       </c>
       <c r="K81" t="b">
         <v>0</v>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="L81" t="b">
+        <v>0</v>
+      </c>
+      <c r="M81" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4244,36 +4649,41 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>NCT01975753</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>First Evaluation of Morphine Hydrochloride by Nebulisation Compared to Intravenous Route in Healthy Volunteers: Preliminary Study Dose</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>AEROMORPH1</t>
         </is>
       </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
       <c r="J82" t="b">
         <v>0</v>
       </c>
       <c r="K82" t="b">
+        <v>0</v>
+      </c>
+      <c r="L82" t="b">
         <v>1</v>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="M82" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4292,36 +4702,41 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>NCT03614806</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr">
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>Transcutaneous Carbon Dioxide Pressure (tcPCO2) Monitoring Vs End-tidal Partial Pressure Carbon Dioxide (PetCO2) Measurement in the Diagnosis of Hyperventilation Syndrome (HVS) (TCvsPETCO2 )</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>TCvsPETCO2</t>
         </is>
       </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
       <c r="J83" t="b">
         <v>0</v>
       </c>
       <c r="K83" t="b">
         <v>0</v>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="L83" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -4340,36 +4755,41 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>NCT01521988</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr">
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>Prevention of Atrial Fibrillation by Combined Right Isthmus Ablation and cryoBalloon Pulmonary Vein Isolation in Patients With Typical Atrial Flutter</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>PAF CRIOBLAF</t>
         </is>
       </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
       <c r="J84" t="b">
         <v>0</v>
       </c>
       <c r="K84" t="b">
         <v>0</v>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="L84" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4388,36 +4808,41 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>NCT02295488</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr">
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>Determinism of the Mechanism of Action of Specific Immunotherapy in Hymenoptera Venom Allergy</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>MAISAVEN</t>
         </is>
       </c>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
       <c r="J85" t="b">
         <v>0</v>
       </c>
       <c r="K85" t="b">
         <v>0</v>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="L85" t="b">
+        <v>0</v>
+      </c>
+      <c r="M85" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -4436,36 +4861,41 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>NCT02021253</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>Circulating Endotoxemia After Liver Resection for Hepatocellular Carcinoma in Liver Disease - Influence of Preoperative Administration of Probiotics</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>LIPROCES</t>
         </is>
       </c>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
       <c r="J86" t="b">
         <v>0</v>
       </c>
       <c r="K86" t="b">
+        <v>0</v>
+      </c>
+      <c r="L86" t="b">
         <v>1</v>
       </c>
-      <c r="L86" t="inlineStr">
+      <c r="M86" t="inlineStr">
         <is>
           <t>DIETARY_SUPPLEMENT</t>
         </is>
@@ -4484,36 +4914,41 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>NCT01960270</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr">
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>Secondary Bilateral or Controlateral Sacral Nerve Stimulation in Overactive Bladder Patients With Unilateral Stimulation Failure - Multicenter Study</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>NEUROBIL</t>
         </is>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
       <c r="J87" t="b">
         <v>0</v>
       </c>
       <c r="K87" t="b">
+        <v>0</v>
+      </c>
+      <c r="L87" t="b">
         <v>1</v>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="M87" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4532,36 +4967,41 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>NCT02370771</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr">
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>Proteomic Analysis in Sera From Patients With Erosive Hand Osteoarthritis</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>PASEO</t>
         </is>
       </c>
-      <c r="I88" t="b">
-        <v>0</v>
-      </c>
       <c r="J88" t="b">
         <v>0</v>
       </c>
       <c r="K88" t="b">
         <v>0</v>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="L88" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4580,36 +5020,41 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>NCT01994499</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr">
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>Randomized Study Comparing Pleural Drainage by Videothoracoscopy to Medical Drainage in Infectious Pleural Effusion</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>VIDMED</t>
         </is>
       </c>
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
       <c r="J89" t="b">
         <v>0</v>
       </c>
       <c r="K89" t="b">
         <v>0</v>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="L89" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4628,36 +5073,41 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>NCT01966640</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr">
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>Basophil Activation Test (BAT) Sensitivity in Child Food Allergy</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>TAB-TPO</t>
         </is>
       </c>
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
       <c r="J90" t="b">
         <v>0</v>
       </c>
       <c r="K90" t="b">
         <v>0</v>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="L90" t="b">
+        <v>0</v>
+      </c>
+      <c r="M90" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -4674,40 +5124,45 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr">
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
         <is>
           <t>2015-002060-17</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>Effect of pharmacological heart rate reduction on visco-elastic properties of the arterial wall - Impact of aging 
  Effet de la réduction pharmacologique de la fréquence cardiaque (FC) sur les propriétés viscoélastiques de la paroi artérielle – impact du vieillissement</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>BRADY-VASC 
  BRADY-VASC</t>
         </is>
       </c>
-      <c r="I91" t="b">
-        <v>0</v>
-      </c>
       <c r="J91" t="b">
         <v>0</v>
       </c>
       <c r="K91" t="b">
         <v>0</v>
       </c>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="b">
+        <v>0</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4722,36 +5177,41 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>NCT03852862</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr">
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>Double Regional Anesthesia in Video Assisted Thoracoscopy</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>DRAVATS</t>
         </is>
       </c>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
       <c r="J92" t="b">
         <v>0</v>
       </c>
       <c r="K92" t="b">
         <v>0</v>
       </c>
-      <c r="L92" t="inlineStr">
+      <c r="L92" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4770,36 +5230,41 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>NCT04367662</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr">
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>Study of the Vascular Compartment and Hypercoagulability During Coronavirus Infection COVID-19</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>COVID'HEMOS</t>
         </is>
       </c>
-      <c r="I93" t="b">
-        <v>0</v>
-      </c>
       <c r="J93" t="b">
         <v>0</v>
       </c>
       <c r="K93" t="b">
         <v>0</v>
       </c>
-      <c r="L93" t="inlineStr">
+      <c r="L93" t="b">
+        <v>0</v>
+      </c>
+      <c r="M93" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4816,38 +5281,43 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr">
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
         <is>
           <t>2015-001501-14</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr">
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>Pilot study of aprepitant effect on aldosterone secretion in diabetic patient (diabetes mellitus) with hypertension associated with low renin</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>APHOS-02</t>
         </is>
       </c>
-      <c r="I94" t="b">
-        <v>0</v>
-      </c>
       <c r="J94" t="b">
         <v>0</v>
       </c>
       <c r="K94" t="b">
         <v>0</v>
       </c>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="b">
+        <v>0</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4862,36 +5332,41 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>NCT04367545</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr">
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>Development of a Molecular Diagnostic Strategy for SARS-CoV2 Based on Saliva in the Context of the COVID-19 Pandemic</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>MolCOVID</t>
         </is>
       </c>
-      <c r="I95" t="b">
-        <v>0</v>
-      </c>
       <c r="J95" t="b">
         <v>0</v>
       </c>
       <c r="K95" t="b">
         <v>0</v>
       </c>
-      <c r="L95" t="inlineStr">
+      <c r="L95" t="b">
+        <v>0</v>
+      </c>
+      <c r="M95" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -4910,36 +5385,41 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>NCT03536403</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr">
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>Study of Spino-pelvic Sagittal Balance by Vicon® Optoelectronic System - Model of Non-invasive Kyphosis</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>VICON-SPINE</t>
         </is>
       </c>
-      <c r="I96" t="b">
-        <v>0</v>
-      </c>
       <c r="J96" t="b">
         <v>0</v>
       </c>
       <c r="K96" t="b">
         <v>0</v>
       </c>
-      <c r="L96" t="inlineStr">
+      <c r="L96" t="b">
+        <v>0</v>
+      </c>
+      <c r="M96" t="inlineStr">
         <is>
           <t>RADIATION</t>
         </is>
@@ -4958,36 +5438,41 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>NCT02877654</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr">
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>Assessment of Intestinal Barrier in Irritable Bowel Syndrome Patients : Is There Any Correlation Between Plasmatic Zonulin and Expression of Intestinal Tight Junction Proteins ?</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>BISII</t>
         </is>
       </c>
-      <c r="I97" t="b">
-        <v>0</v>
-      </c>
       <c r="J97" t="b">
         <v>0</v>
       </c>
       <c r="K97" t="b">
         <v>0</v>
       </c>
-      <c r="L97" t="inlineStr">
+      <c r="L97" t="b">
+        <v>0</v>
+      </c>
+      <c r="M97" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -5006,36 +5491,41 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>NCT02550704</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr">
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>Association Between High Faecal Calprotectin, Increased Intestinal Permeability and Visceral Hypersensitivity in Patients Suffering From Irritable Bowel Syndrome With Diarrhoea</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>SIIMPA</t>
         </is>
       </c>
-      <c r="I98" t="b">
-        <v>0</v>
-      </c>
       <c r="J98" t="b">
         <v>0</v>
       </c>
       <c r="K98" t="b">
         <v>0</v>
       </c>
-      <c r="L98" t="inlineStr">
+      <c r="L98" t="b">
+        <v>0</v>
+      </c>
+      <c r="M98" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -5054,36 +5544,41 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>NCT05520996</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr">
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>Impact of Ostracism on Prospective Memory in ADHD Children With or Without Emotional Dysregulation/ Impact de l'Ostracisme Sur la mémoire Prospective Chez Des Enfants Atteint de TDA/H Avec ou Sans dysrégulation émotionnelle.</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>IOM-ADHD</t>
         </is>
       </c>
-      <c r="I99" t="b">
-        <v>0</v>
-      </c>
       <c r="J99" t="b">
         <v>0</v>
       </c>
       <c r="K99" t="b">
         <v>0</v>
       </c>
-      <c r="L99" t="inlineStr">
+      <c r="L99" t="b">
+        <v>0</v>
+      </c>
+      <c r="M99" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -5102,36 +5597,41 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>NCT04503655</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr">
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>Etude Multicentrique Évaluant L'efficacité D'une Intervention Visant À Réduire La Durée De Séjour Après L'implantation D'une Bioprothèse Aortique Par Voie Transfémorale</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>FAST-TAVI II</t>
         </is>
       </c>
-      <c r="I100" t="b">
-        <v>0</v>
-      </c>
       <c r="J100" t="b">
         <v>0</v>
       </c>
       <c r="K100" t="b">
         <v>0</v>
       </c>
-      <c r="L100" t="inlineStr">
+      <c r="L100" t="b">
+        <v>0</v>
+      </c>
+      <c r="M100" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -5150,36 +5650,41 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>NCT04257318</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr">
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>Clitoris Potential Analgesic Function Research by Pregnant Women : Feasibility Study</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>FAC</t>
         </is>
       </c>
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
       <c r="J101" t="b">
         <v>0</v>
       </c>
       <c r="K101" t="b">
         <v>0</v>
       </c>
-      <c r="L101" t="inlineStr">
+      <c r="L101" t="b">
+        <v>0</v>
+      </c>
+      <c r="M101" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -5198,28 +5703,30 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>NCT03718312</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr">
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>Evaluation of the Effectiveness of Ischemic Pre-conditioning on the Morbidity and Mortality of Open Surgery of Thoracoabdominal Aortic Aneurysms.</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>EPICATA</t>
         </is>
-      </c>
-      <c r="I102" t="b">
-        <v>1</v>
       </c>
       <c r="J102" t="b">
         <v>1</v>
@@ -5227,7 +5734,10 @@
       <c r="K102" t="b">
         <v>1</v>
       </c>
-      <c r="L102" t="inlineStr">
+      <c r="L102" t="b">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -5244,40 +5754,45 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr">
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
         <is>
           <t>2020-002126-90</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr">
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>Opioid-Free Anesthesia in Cardiac Surgery 
  Anesthésie avec/sans opioïdes en chirurgie cardiaque</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>OFACS 
  OFACS</t>
         </is>
       </c>
-      <c r="I103" t="b">
-        <v>0</v>
-      </c>
       <c r="J103" t="b">
         <v>0</v>
       </c>
       <c r="K103" t="b">
         <v>0</v>
       </c>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="b">
+        <v>0</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5292,28 +5807,33 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>NCT00213668</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr">
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
         <is>
           <t>Effect of Glutamine on Gastric Emptying and Length of Parenteral Nutrition in Premature Neonates</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="b">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="b">
         <v>0</v>
       </c>
       <c r="K104" t="b">
         <v>0</v>
       </c>
-      <c r="L104" t="inlineStr">
+      <c r="L104" t="b">
+        <v>0</v>
+      </c>
+      <c r="M104" t="inlineStr">
         <is>
           <t>DIETARY_SUPPLEMENT</t>
         </is>
@@ -5332,32 +5852,37 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>NCT00512304</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr">
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
         <is>
           <t>Feasibility Study of 2 Parallel Phases II Pre or Postgastrectomy in Patients With Gastric Cancer (FOLFIRI-radiotherapy Plus 5 Fluorouracil-surgery or Surgery-FOLFIRI-radiotherapy Plus 5 Fluorouracil)</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>TRACE</t>
         </is>
       </c>
-      <c r="I105" t="b">
-        <v>0</v>
-      </c>
       <c r="J105" t="b">
         <v>0</v>
       </c>
       <c r="K105" t="b">
         <v>0</v>
       </c>
-      <c r="L105" t="inlineStr">
+      <c r="L105" t="b">
+        <v>0</v>
+      </c>
+      <c r="M105" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -5374,35 +5899,40 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr">
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
         <is>
           <t>2008-003367-40</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr">
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr">
         <is>
           <t>Pilot study of the effect of a substance P antagonist, aprepitant, on aldosterone and cortisol secretions in healthy volunteers 
  ETUDE PILOTE DE L'EFFET D'UN ANTAGONISTE DE LA SUBSTANCE P, L'APREPITANT, SUR LES SECRETIONS D'ALDOSTERONE ET DE CORTISOL CHEZ LE VOLONTAIRE SAIN</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>APHOS</t>
         </is>
       </c>
-      <c r="I106" t="b">
-        <v>0</v>
-      </c>
       <c r="J106" t="b">
         <v>0</v>
       </c>
       <c r="K106" t="b">
         <v>0</v>
       </c>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="b">
+        <v>0</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -5415,34 +5945,39 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr">
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
         <is>
           <t>2011-003539-68</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr">
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr">
         <is>
           <t>ETUDE PROSPECTIVE RANDOMISEE COMPARATIVE PREDNISONE/ CYCLOPHOSPHAMIDE VERSUS PREDNISONE/ RITUXIMAB AU COURS DE L'HEMOPHILIE ACQUISE</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>CREHA</t>
         </is>
       </c>
-      <c r="I107" t="b">
-        <v>0</v>
-      </c>
       <c r="J107" t="b">
         <v>0</v>
       </c>
       <c r="K107" t="b">
         <v>0</v>
       </c>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="b">
+        <v>0</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -5455,36 +5990,41 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr">
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
         <is>
           <t>2011-006268-27</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr">
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr">
         <is>
           <t>Evaluation of the Immune Response against Neisseria meningitidis B:14,P1-7,16 in subjects inoculated by MenBVac (R) vaccine. 
  Evaluation de la réponse immunitaire contre la souche de Neisseria Meningitidis B:14,P1.7,16 chez les sujets vaccinés par MenBVac®.</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>MenBVac clinical trial extension 
  Extension de l'étude MenBVac</t>
         </is>
       </c>
-      <c r="I108" t="b">
-        <v>0</v>
-      </c>
       <c r="J108" t="b">
         <v>0</v>
       </c>
       <c r="K108" t="b">
         <v>0</v>
       </c>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="b">
+        <v>0</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5497,36 +6037,41 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr">
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
         <is>
           <t>2011-006209-83</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr">
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr">
         <is>
           <t>Evaluation of the Immune Response against Neisseria meningitidis B:14, P1-7,16 in subjects inoculated by MenBVac ® vaccine. 
  Evaluation de la réponse Immunitaire contre la souche de Neisseria meningitidis B:14,P1-7,16 chez les sujets amenés à être vaccinés par MenBVac®</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>Effivac clinical trial extension 
  extension de l'étude Effivac</t>
         </is>
       </c>
-      <c r="I109" t="b">
-        <v>0</v>
-      </c>
       <c r="J109" t="b">
         <v>0</v>
       </c>
       <c r="K109" t="b">
         <v>0</v>
       </c>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="b">
+        <v>0</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/publipostage2/00cxy0s05/liste_essais_cliniques_identifies_00cxy0s05.xlsx
+++ b/publipostage2/00cxy0s05/liste_essais_cliniques_identifies_00cxy0s05.xlsx
@@ -55,19 +55,19 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>🟧</t>
-  </si>
-  <si>
-    <t>🟩</t>
-  </si>
-  <si>
-    <t>noir</t>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>📙</t>
+  </si>
+  <si>
+    <t>📗</t>
+  </si>
+  <si>
+    <t>bleu</t>
   </si>
   <si>
     <t>rouge</t>

--- a/publipostage2/00cxy0s05/liste_essais_cliniques_identifies_00cxy0s05.xlsx
+++ b/publipostage2/00cxy0s05/liste_essais_cliniques_identifies_00cxy0s05.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📕</t>
-  </si>
-  <si>
-    <t>📙</t>
-  </si>
-  <si>
-    <t>📗</t>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>✅</t>
   </si>
   <si>
     <t>bleu</t>

--- a/publipostage2/00cxy0s05/liste_essais_cliniques_identifies_00cxy0s05.xlsx
+++ b/publipostage2/00cxy0s05/liste_essais_cliniques_identifies_00cxy0s05.xlsx
@@ -67,7 +67,7 @@
     <t>✅</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>rouge</t>
@@ -79,16 +79,16 @@
     <t>vert</t>
   </si>
   <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT00213486</t>

--- a/publipostage2/00cxy0s05/liste_essais_cliniques_identifies_00cxy0s05.xlsx
+++ b/publipostage2/00cxy0s05/liste_essais_cliniques_identifies_00cxy0s05.xlsx
@@ -76,12 +76,12 @@
     <t>NCT00213434</t>
   </si>
   <si>
+    <t>NCT00213499</t>
+  </si>
+  <si>
     <t>NCT00234234</t>
   </si>
   <si>
-    <t>NCT00213499</t>
-  </si>
-  <si>
     <t>NCT00213551</t>
   </si>
   <si>
@@ -106,217 +106,220 @@
     <t>NCT00213629</t>
   </si>
   <si>
+    <t>NCT00877578</t>
+  </si>
+  <si>
+    <t>NCT00977652</t>
+  </si>
+  <si>
+    <t>NCT01081444</t>
+  </si>
+  <si>
     <t>NCT00213616</t>
   </si>
   <si>
     <t>NCT01016925</t>
   </si>
   <si>
-    <t>NCT00977652</t>
-  </si>
-  <si>
-    <t>NCT01081444</t>
-  </si>
-  <si>
-    <t>NCT00877578</t>
+    <t>NCT01081457</t>
   </si>
   <si>
     <t>NCT00620724</t>
   </si>
   <si>
+    <t>NCT01029275</t>
+  </si>
+  <si>
+    <t>NCT01565577</t>
+  </si>
+  <si>
     <t>NCT01299857</t>
   </si>
   <si>
-    <t>NCT01565577</t>
-  </si>
-  <si>
-    <t>NCT01029275</t>
-  </si>
-  <si>
-    <t>NCT01081457</t>
+    <t>NCT01103206</t>
+  </si>
+  <si>
+    <t>NCT01936597</t>
+  </si>
+  <si>
+    <t>NCT01801605</t>
+  </si>
+  <si>
+    <t>NCT01220388</t>
+  </si>
+  <si>
+    <t>NCT02171377</t>
+  </si>
+  <si>
+    <t>NCT00692393</t>
+  </si>
+  <si>
+    <t>NCT01350297</t>
+  </si>
+  <si>
+    <t>NCT01057953</t>
+  </si>
+  <si>
+    <t>NCT00525616</t>
+  </si>
+  <si>
+    <t>NCT01304576</t>
   </si>
   <si>
     <t>NCT02320916</t>
   </si>
   <si>
-    <t>NCT01103206</t>
-  </si>
-  <si>
-    <t>NCT00525616</t>
-  </si>
-  <si>
     <t>NCT02110329</t>
   </si>
   <si>
-    <t>NCT01304576</t>
-  </si>
-  <si>
-    <t>NCT01801605</t>
-  </si>
-  <si>
-    <t>NCT01350297</t>
-  </si>
-  <si>
-    <t>NCT01057953</t>
-  </si>
-  <si>
-    <t>NCT00692393</t>
-  </si>
-  <si>
-    <t>NCT01220388</t>
-  </si>
-  <si>
-    <t>NCT02171377</t>
-  </si>
-  <si>
-    <t>NCT01936597</t>
+    <t>NCT02086253</t>
+  </si>
+  <si>
+    <t>NCT01712581</t>
   </si>
   <si>
     <t>NCT01765374</t>
   </si>
   <si>
-    <t>NCT01712581</t>
+    <t>NCT02170506</t>
+  </si>
+  <si>
+    <t>NCT00811915</t>
   </si>
   <si>
     <t>NCT01566188</t>
   </si>
   <si>
-    <t>NCT02170506</t>
-  </si>
-  <si>
     <t>NCT01330745</t>
   </si>
   <si>
-    <t>NCT00811915</t>
-  </si>
-  <si>
-    <t>NCT02086253</t>
+    <t>NCT02029859</t>
   </si>
   <si>
     <t>NCT02570464</t>
   </si>
   <si>
+    <t>NCT02231827</t>
+  </si>
+  <si>
+    <t>NCT01523522</t>
+  </si>
+  <si>
+    <t>NCT01275560</t>
+  </si>
+  <si>
     <t>NCT01326416</t>
   </si>
   <si>
-    <t>NCT01275560</t>
-  </si>
-  <si>
-    <t>NCT01523522</t>
+    <t>NCT01426659</t>
+  </si>
+  <si>
+    <t>NCT00903799</t>
+  </si>
+  <si>
+    <t>NCT01707732</t>
+  </si>
+  <si>
+    <t>NCT02556320</t>
   </si>
   <si>
     <t>NCT01686347</t>
   </si>
   <si>
-    <t>NCT01426659</t>
-  </si>
-  <si>
-    <t>NCT00903799</t>
-  </si>
-  <si>
-    <t>NCT01707732</t>
-  </si>
-  <si>
-    <t>NCT02029859</t>
-  </si>
-  <si>
-    <t>NCT02556320</t>
-  </si>
-  <si>
-    <t>NCT02231827</t>
+    <t>NCT01931579</t>
+  </si>
+  <si>
+    <t>NCT02295514</t>
+  </si>
+  <si>
+    <t>NCT01588288</t>
+  </si>
+  <si>
+    <t>NCT02557061</t>
+  </si>
+  <si>
+    <t>NCT01638845</t>
+  </si>
+  <si>
+    <t>NCT01610973</t>
+  </si>
+  <si>
+    <t>NCT01212510</t>
+  </si>
+  <si>
+    <t>NCT02311075</t>
+  </si>
+  <si>
+    <t>NCT02001649</t>
   </si>
   <si>
     <t>NCT00784589</t>
   </si>
   <si>
+    <t>NCT02272166</t>
+  </si>
+  <si>
     <t>NCT01352910</t>
   </si>
   <si>
     <t>NCT02555566</t>
   </si>
   <si>
-    <t>NCT01931579</t>
-  </si>
-  <si>
-    <t>NCT01588288</t>
-  </si>
-  <si>
     <t>NCT01594463</t>
   </si>
   <si>
-    <t>NCT02001649</t>
-  </si>
-  <si>
-    <t>NCT02557061</t>
-  </si>
-  <si>
-    <t>NCT01638845</t>
-  </si>
-  <si>
-    <t>NCT02272166</t>
-  </si>
-  <si>
-    <t>NCT01212510</t>
-  </si>
-  <si>
-    <t>NCT02311075</t>
-  </si>
-  <si>
-    <t>NCT02295514</t>
-  </si>
-  <si>
-    <t>NCT01610973</t>
+    <t>NCT02920684</t>
+  </si>
+  <si>
+    <t>NCT02353702</t>
+  </si>
+  <si>
+    <t>NCT01690585</t>
+  </si>
+  <si>
+    <t>NCT02988570</t>
+  </si>
+  <si>
+    <t>NCT02594722</t>
+  </si>
+  <si>
+    <t>NCT02037191</t>
+  </si>
+  <si>
+    <t>NCT02664389</t>
   </si>
   <si>
     <t>NCT02004860</t>
   </si>
   <si>
-    <t>NCT02664389</t>
-  </si>
-  <si>
-    <t>NCT02594722</t>
-  </si>
-  <si>
-    <t>NCT02037191</t>
-  </si>
-  <si>
     <t>NCT01340001</t>
   </si>
   <si>
-    <t>NCT02920684</t>
-  </si>
-  <si>
-    <t>NCT02988570</t>
-  </si>
-  <si>
-    <t>NCT01690585</t>
-  </si>
-  <si>
-    <t>NCT02353702</t>
+    <t>NCT01960270</t>
+  </si>
+  <si>
+    <t>NCT01975753</t>
+  </si>
+  <si>
+    <t>NCT02295488</t>
+  </si>
+  <si>
+    <t>NCT03614806</t>
+  </si>
+  <si>
+    <t>NCT02021253</t>
+  </si>
+  <si>
+    <t>NCT01521988</t>
+  </si>
+  <si>
+    <t>NCT03750058</t>
   </si>
   <si>
     <t>NCT02170467</t>
   </si>
   <si>
-    <t>NCT03750058</t>
-  </si>
-  <si>
-    <t>NCT01975753</t>
-  </si>
-  <si>
-    <t>NCT03614806</t>
-  </si>
-  <si>
-    <t>NCT01521988</t>
-  </si>
-  <si>
-    <t>NCT02295488</t>
-  </si>
-  <si>
-    <t>NCT02021253</t>
-  </si>
-  <si>
-    <t>NCT01960270</t>
+    <t>NCT01966640</t>
   </si>
   <si>
     <t>NCT02370771</t>
@@ -325,9 +328,6 @@
     <t>NCT01994499</t>
   </si>
   <si>
-    <t>NCT01966640</t>
-  </si>
-  <si>
     <t>NCT03852862</t>
   </si>
   <si>
@@ -460,12 +460,12 @@
     <t>Prospective Evaluation of Mandibular Advancement by Herbst Device in the Treatment of Moderate Obstructive Sleep Apnea Syndrome</t>
   </si>
   <si>
+    <t>Randomized Prospective Multicenter Study of Non Invasive Ventilation Assessment for Weaning From Mechanical Ventilation in Patients With Chronic Respiratory Failure. NIV and Weaning (VENISE)Trial.</t>
+  </si>
+  <si>
     <t>Predictors of the Response to Adalimumab in Rheumatoid Arthritis</t>
   </si>
   <si>
-    <t>Randomized Prospective Multicenter Study of Non Invasive Ventilation Assessment for Weaning From Mechanical Ventilation in Patients With Chronic Respiratory Failure. NIV and Weaning (VENISE)Trial.</t>
-  </si>
-  <si>
     <t>Comparative Effects of Glutamine and Glucose on Intestinal Protein Metabolism in Healthy Humans</t>
   </si>
   <si>
@@ -490,214 +490,208 @@
     <t>Transcriptome Analysis Through a Dedicated Macro-array and TcLandscape Repertoire Analysis for Diagnosis of Myositis.</t>
   </si>
   <si>
+    <t>Efficacy of a Special Oral Nutritional Supplement on Nutritional Status of Malnourished Elderly Patients</t>
+  </si>
+  <si>
+    <t>Short Term Efficacy of Percutaneous Tibial Nerve Stimulation for the Treatment of Fecal Incontinence:Randomized Controlled Study</t>
+  </si>
+  <si>
+    <t>Effect of Pharyngeal Inhibition Induced by Repetitive Transcranial Stimulation in Post Stroke Dysphagia</t>
+  </si>
+  <si>
     <t>Bilateral Laryngeal Paralysis Reinnervation. Speech and Ventilatory Results Analysis</t>
   </si>
   <si>
     <t>Bacterial Colonization After Tunneling in Femoral Perineural Catheters</t>
   </si>
   <si>
-    <t>Short Term Efficacy of Percutaneous Tibial Nerve Stimulation for the Treatment of Fecal Incontinence:Randomized Controlled Study</t>
-  </si>
-  <si>
-    <t>Effect of Pharyngeal Inhibition Induced by Repetitive Transcranial Stimulation in Post Stroke Dysphagia</t>
-  </si>
-  <si>
-    <t>Efficacy of a Special Oral Nutritional Supplement on Nutritional Status of Malnourished Elderly Patients</t>
+    <t>Effect of Deep Brain Stimulation on Voluntary and Involuntary Gastrointestinal Motility in Parkinson's Disease</t>
   </si>
   <si>
     <t>Maintenance Oral Nifedipine for Management of Symptomatic Placenta Previa : A Randomized Clinical Trial</t>
   </si>
   <si>
+    <t>Multicenter, Randomised Open Trial Comparing the Efficacy of a Medical Treatment With Sandostatin LP 30 mg Performed Before Surgery to a Prime Line transsphenoïdal Surgery in Previously Untreated Acromegalic Patients With Either a Micro or a Macro Pituitary Adenoma</t>
+  </si>
+  <si>
+    <t>Phase 3, Vaccinal Activity Assessment of MenBVac Against Nesseiria Menigitidis B:14,P1.7,16 Strain in Child Vaccinated With MenBVac®</t>
+  </si>
+  <si>
     <t>EVALUATION CLINIQUE ET BIOLOGIQUE A LONG TERME DES PATIENTS ATTEINTS DE FORMES SEVERES DE PEMPHIGUS TRAITES PAR LE RITUXIMAB</t>
   </si>
   <si>
-    <t>Phase 3, Vaccinal Activity Assessment of MenBVac Against Nesseiria Menigitidis B:14,P1.7,16 Strain in Child Vaccinated With MenBVac®</t>
-  </si>
-  <si>
-    <t>Multicenter, Randomised Open Trial Comparing the Efficacy of a Medical Treatment With Sandostatin LP 30 mg Performed Before Surgery to a Prime Line transsphenoïdal Surgery in Previously Untreated Acromegalic Patients With Either a Micro or a Macro Pituitary Adenoma</t>
-  </si>
-  <si>
-    <t>Effect of Deep Brain Stimulation on Voluntary and Involuntary Gastrointestinal Motility in Parkinson's Disease</t>
+    <t>Evaluation of a Parathyroid Hormone Suppression Test With Cinacalcet. Comparison: 1- With the Results of the Intravenous Calcium Suppression Test in Healthy Controls; 2- Between Healthy Controls and Patients With Primary Hyperparathyroidism.</t>
+  </si>
+  <si>
+    <t>Prospective Study of 3 Phone Assistance Strategies to Achieve a Continuous Cardiac Massage During Training in Non-hospital Cardiac Cases.</t>
+  </si>
+  <si>
+    <t>Does Repetitive Transcranial Magnetic Stimulation (rTMS) Reduce Rectal Hypersensitivity in Patients With IBS ?</t>
+  </si>
+  <si>
+    <t>Etude de faisabilité de 2 phases II parallèles pré et post-gastrectomie : étude de faisabilité d'un traitement de chimiothérapie et radiothérapie pré-opératoire de l'adénocarcinome gastrique (LV5FU2s + Irinotecan - Radiochimiothérapie + 5FU IV continu) et étude de faisabilité d'un traitement de chimiothérapie et radiothérapie post-opératoire de l'adénocarcinome gastrique (LV5FU2s + Irinotecan - Radiochimiothérapie + 5FU IV continu)</t>
+  </si>
+  <si>
+    <t>Pilot Study of the Action L-lysine on Aldosterone and Cortisol Secretion in Healthy Volunteers.</t>
+  </si>
+  <si>
+    <t>Quadricipital Electrical Stimulation in COPD Patients Rehabilitation</t>
+  </si>
+  <si>
+    <t>Primary vs. Secondary Anastomosis After Sigmoid Colon Resection for Perforated Diverticulitis (Hinchey Stage III and IV): a Prospective Multicentric Randomized Trial</t>
+  </si>
+  <si>
+    <t>Phrenic Reinnervation in Central Ventilatory Paralysis Due to Medullary Trauma With Phrenic Motoneuron Destruction</t>
+  </si>
+  <si>
+    <t>Oligogenic Determinism of Colorectal Cancer</t>
+  </si>
+  <si>
+    <t>Assessment of Rituximab Efficiency and Tolerance in Treatment of Bullous Pemphigoid.</t>
+  </si>
+  <si>
+    <t>Orientation Agnosia: Neuropsychological Evaluation, Associated Symptoms, Clinical and Anatomical Correlations</t>
   </si>
   <si>
     <t>A Randomized Controlled Trial on the Effect of Needle Gauge on the Pain and Anxiety Experienced During Arterial Puncture</t>
   </si>
   <si>
-    <t>Evaluation of a Parathyroid Hormone Suppression Test With Cinacalcet. Comparison: 1- With the Results of the Intravenous Calcium Suppression Test in Healthy Controls; 2- Between Healthy Controls and Patients With Primary Hyperparathyroidism.</t>
-  </si>
-  <si>
-    <t>Assessment of Rituximab Efficiency and Tolerance in Treatment of Bullous Pemphigoid.</t>
-  </si>
-  <si>
     <t>Simultaneous Detection of Somatic Quantitative Molecular Alterations Using the Qantitative Multiplex Pcr of Short Fluorescent Fragments Method (QMPSF) in Stage II-III Colon Cancer: a Prospective Study</t>
   </si>
   <si>
-    <t>Orientation Agnosia: Neuropsychological Evaluation, Associated Symptoms, Clinical and Anatomical Correlations</t>
-  </si>
-  <si>
-    <t>Does Repetitive Transcranial Magnetic Stimulation (rTMS) Reduce Rectal Hypersensitivity in Patients With IBS ?</t>
-  </si>
-  <si>
-    <t>Etude de faisabilité de 2 phases II parallèles pré et post-gastrectomie : étude de faisabilité d'un traitement de chimiothérapie et radiothérapie pré-opératoire de l'adénocarcinome gastrique (LV5FU2s + Irinotecan - Radiochimiothérapie + 5FU IV continu) et étude de faisabilité d'un traitement de chimiothérapie et radiothérapie post-opératoire de l'adénocarcinome gastrique (LV5FU2s + Irinotecan - Radiochimiothérapie + 5FU IV continu)</t>
-  </si>
-  <si>
-    <t>Phrenic Reinnervation in Central Ventilatory Paralysis Due to Medullary Trauma With Phrenic Motoneuron Destruction</t>
-  </si>
-  <si>
-    <t>Oligogenic Determinism of Colorectal Cancer</t>
-  </si>
-  <si>
-    <t>Primary vs. Secondary Anastomosis After Sigmoid Colon Resection for Perforated Diverticulitis (Hinchey Stage III and IV): a Prospective Multicentric Randomized Trial</t>
-  </si>
-  <si>
-    <t>Pilot Study of the Action L-lysine on Aldosterone and Cortisol Secretion in Healthy Volunteers.</t>
-  </si>
-  <si>
-    <t>Quadricipital Electrical Stimulation in COPD Patients Rehabilitation</t>
-  </si>
-  <si>
-    <t>Prospective Study of 3 Phone Assistance Strategies to Achieve a Continuous Cardiac Massage During Training in Non-hospital Cardiac Cases.</t>
+    <t>Role of Endothelin-1 in Mediating Flow-mediated Dilatation of Conduit Arteries During Sustained Hyperemic Stimulation</t>
+  </si>
+  <si>
+    <t>Determination of Myocardial Relaxation Times Values in Healthy Volunters</t>
   </si>
   <si>
     <t>Study of Sonographic Efficacy of Rituximab in Rheumatoid Arthritis</t>
   </si>
   <si>
-    <t>Determination of Myocardial Relaxation Times Values in Healthy Volunters</t>
+    <t>Effect of Sub-mental Sensitive Transcutaneous Electrical Stimulation on Pharyngeal Muscles Control</t>
+  </si>
+  <si>
+    <t>A Prospective, Comparative, Multicenter, Randomized Study to Compare the Safety and Efficacy of Sirolimus (Rapamune) to Tacrolimus (Advagraf) Associated to Mycophenolate Mofetil (CellCept) Between 12 and 36 Months After Kidney Transplantation</t>
   </si>
   <si>
     <t>Cardiovascular Impact of Omega-3 Dietary Supplement From Vegetal Origin in Hypertension Associated With Metabolic Syndrome</t>
   </si>
   <si>
-    <t>Effect of Sub-mental Sensitive Transcutaneous Electrical Stimulation on Pharyngeal Muscles Control</t>
-  </si>
-  <si>
     <t>Mesenteric Microcirculatory Function Study Through Sublingual Evaluation During Cardiopulmonary Bypass</t>
   </si>
   <si>
-    <t>A Prospective, Comparative, Multicenter, Randomized Study to Compare the Safety and Efficacy of Sirolimus (Rapamune) to Tacrolimus (Advagraf) Associated to Mycophenolate Mofetil (CellCept) Between 12 and 36 Months After Kidney Transplantation</t>
-  </si>
-  <si>
-    <t>Role of Endothelin-1 in Mediating Flow-mediated Dilatation of Conduit Arteries During Sustained Hyperemic Stimulation</t>
+    <t>Sleep Apnea, Obesity and Pregnancy</t>
   </si>
   <si>
     <t>Aortic Cross-Clamping and Systemic Inflammatory Response in Humans: Effect of Ischemic Preconditioning</t>
   </si>
   <si>
+    <t>A Study of the Balance Control During Gait : Comparison of Data Acquisition Between Force Plate and 3D Optoelectronic Gait Analysis System</t>
+  </si>
+  <si>
+    <t>Etude de l'efficacité et de la sécurité d'Injections Intra-sphinctériennes de Myoblastes Autologues Chez Des Patients Atteints d'Incontinence Anale sévère Par Insuffisance sphinctérienne</t>
+  </si>
+  <si>
     <t>Evaluation of the Impact of Physical Reconditioning Associated With Specific Nutritional Supplementation in Obese Patients Suffering From Metabolic Syndrome. OBEFITT Study.</t>
   </si>
   <si>
-    <t>Etude de l'efficacité et de la sécurité d'Injections Intra-sphinctériennes de Myoblastes Autologues Chez Des Patients Atteints d'Incontinence Anale sévère Par Insuffisance sphinctérienne</t>
+    <t>Evaluation of Language and Sensorimotor Constraints of Very Premature Babies at the Age of 3 Years 1 / 2 Without Cerebral Palsy. Randomised Study of Stimulation Training Implicit in Children Vulnerable</t>
+  </si>
+  <si>
+    <t>Clinical Efficacy and Efficiency of Gastric Electrical Stimulation (Enterra®) for Refractory Nausea and/or Vomiting</t>
+  </si>
+  <si>
+    <t>Adjusted Value of Thromboprophylaxis in Hospitalized Obese Patients: A Comparative Study of Two Regimens of Enoxaparin</t>
+  </si>
+  <si>
+    <t>Immunological and Viral Parameters in Patients Receiving Anti-epileptic Drugs</t>
   </si>
   <si>
     <t>Epidural Analgesia and Troubles of Fetal Cardiaq Rythm : Effect of the Systemic Transfer of Ropivacaine and Sufentanil</t>
   </si>
   <si>
-    <t>Evaluation of Language and Sensorimotor Constraints of Very Premature Babies at the Age of 3 Years 1 / 2 Without Cerebral Palsy. Randomised Study of Stimulation Training Implicit in Children Vulnerable</t>
-  </si>
-  <si>
-    <t>Clinical Efficacy and Efficiency of Gastric Electrical Stimulation (Enterra®) for Refractory Nausea and/or Vomiting</t>
-  </si>
-  <si>
-    <t>Adjusted Value of Thromboprophylaxis in Hospitalized Obese Patients: A Comparative Study of Two Regimens of Enoxaparin</t>
-  </si>
-  <si>
-    <t>Sleep Apnea, Obesity and Pregnancy</t>
-  </si>
-  <si>
-    <t>Immunological and Viral Parameters in Patients Receiving Anti-epileptic Drugs</t>
-  </si>
-  <si>
-    <t>A Study of the Balance Control During Gait : Comparison of Data Acquisition Between Force Plate and 3D Optoelectronic Gait Analysis System</t>
+    <t>Assessment of Probe Based Confocal Laser Endo-microscopy for In-vivo Diagnosis of Peripheral Lung Nodules and Masses. "NODIVEM" Study</t>
+  </si>
+  <si>
+    <t>Correlation Between PTP1B Expression and Organ Failure During Sepsis</t>
+  </si>
+  <si>
+    <t>Diagnosis Interest of Galectin 3 Dosage in Nodular and Multinodular Goiter Pretreatment</t>
+  </si>
+  <si>
+    <t>Prognostic Value of the Lymphocytic Infiltrate in Colon Cancers</t>
+  </si>
+  <si>
+    <t>Evaluation of the impact of physical reconditioning associated with specific nutritional supplementation in obese patients suffering of metabolic syndrome.</t>
+  </si>
+  <si>
+    <t>Comparison of Manual and Automated Techniques in Achieving Posterior Lamellar Transplantation of the Cornea</t>
+  </si>
+  <si>
+    <t>Study of Circulating Markers in Serum of Patients Treated for Metastatic Colorectal Cancer</t>
+  </si>
+  <si>
+    <t>Determination of the Mechanisms Involved in Conduit Artery Endothelial Dysfunction in Type 2 Diabetes</t>
+  </si>
+  <si>
+    <t>Genetic Variants Associated With Adolescent Suicide Attempts: a Candidate-gene Association Study.</t>
   </si>
   <si>
     <t>Comparison Between Monoclonal Antibody CD20 Treatment (Rituximab (mabthéra))and General Corticotherapy Treatment in Patients With Pemphigus</t>
   </si>
   <si>
+    <t>Effects of Propofol on Early Recovery of Hunger After Ambulatory Surgery Compared With Sevoflurane</t>
+  </si>
+  <si>
     <t>Role of Epoxyeicosatrienoic Acids in Chronic Allograft Nephropathy</t>
   </si>
   <si>
-    <t>Assessment of Probe Based Confocal Laser Endo-microscopy for In-vivo Diagnosis of Peripheral Lung Nodules and Masses. "NODIVEM" Study</t>
-  </si>
-  <si>
-    <t>Diagnosis Interest of Galectin 3 Dosage in Nodular and Multinodular Goiter Pretreatment</t>
-  </si>
-  <si>
     <t>Third Trimester Routine Ultrasound in Low-risk Pregnancies : Comparison of Two Timing Periods Procedure for Screening Intrauterine Growth Restriction</t>
   </si>
   <si>
-    <t>Evaluation of the impact of physical reconditioning associated with specific nutritional supplementation in obese patients suffering of metabolic syndrome.</t>
-  </si>
-  <si>
-    <t>Genetic Variants Associated With Adolescent Suicide Attempts: a Candidate-gene Association Study.</t>
-  </si>
-  <si>
-    <t>Prognostic Value of the Lymphocytic Infiltrate in Colon Cancers</t>
-  </si>
-  <si>
-    <t>Effects of Propofol on Early Recovery of Hunger After Ambulatory Surgery Compared With Sevoflurane</t>
-  </si>
-  <si>
-    <t>Study of Circulating Markers in Serum of Patients Treated for Metastatic Colorectal Cancer</t>
-  </si>
-  <si>
-    <t>Determination of the Mechanisms Involved in Conduit Artery Endothelial Dysfunction in Type 2 Diabetes</t>
-  </si>
-  <si>
-    <t>Correlation Between PTP1B Expression and Organ Failure During Sepsis</t>
-  </si>
-  <si>
-    <t>Comparison of Manual and Automated Techniques in Achieving Posterior Lamellar Transplantation of the Cornea</t>
+    <t>Efficacy of Parietal Continuous Infiltration of Local Anesthesic on Diaphragmatic Function After Upper Abdominal Surgery Through a Subcostal Incision</t>
+  </si>
+  <si>
+    <t>Efficacy of Parenteral Iron Supplementation After Gastrointestinal Bleeding in Subjects Over 65</t>
+  </si>
+  <si>
+    <t>Study on the Phenotype of Language in Preterm Born Children at 5 Years of Age</t>
+  </si>
+  <si>
+    <t>RANDOMIZED DOUBLE-BLIND STUDY MULTICENTRIQUE TESTING THE EFFICIENCY OF the METHOTREXATE AT PATIENTS AFFECTED BY GRAVE PELADE (METHOTREXATE VERSUS PLACEBO WITH SECONDARY TREATMENT BY METHOTREXATE and PREDNISONE)</t>
+  </si>
+  <si>
+    <t>Targeted Next-generation Sequencing Panel for Identification of Germline Mutations in Early Onset Cancers With Sporadic or Hereditary Presentation</t>
   </si>
   <si>
     <t>Phase 3 : Tacrolimus Ointment Interest (PROTOPIC ®) in the Maintenance Treatment of Severe Seborrheic Dermatitis on Adult Face</t>
   </si>
   <si>
-    <t>Targeted Next-generation Sequencing Panel for Identification of Germline Mutations in Early Onset Cancers With Sporadic or Hereditary Presentation</t>
-  </si>
-  <si>
-    <t>RANDOMIZED DOUBLE-BLIND STUDY MULTICENTRIQUE TESTING THE EFFICIENCY OF the METHOTREXATE AT PATIENTS AFFECTED BY GRAVE PELADE (METHOTREXATE VERSUS PLACEBO WITH SECONDARY TREATMENT BY METHOTREXATE and PREDNISONE)</t>
-  </si>
-  <si>
     <t>Effects of Nucleus Basalis of Meynert Area Electrical Stimulation on Cognitive Behavioral Disorders in Dementia With Lewy Bodies : A Pilot Phase 1 Study</t>
   </si>
   <si>
-    <t>Study on the Phenotype of Language in Preterm Born Children at 5 Years of Age</t>
-  </si>
-  <si>
-    <t>Efficacy of Parenteral Iron Supplementation After Gastrointestinal Bleeding in Subjects Over 65</t>
-  </si>
-  <si>
-    <t>Efficacy of Parietal Continuous Infiltration of Local Anesthesic on Diaphragmatic Function After Upper Abdominal Surgery Through a Subcostal Incision</t>
+    <t>Secondary Bilateral or Controlateral Sacral Nerve Stimulation in Overactive Bladder Patients With Unilateral Stimulation Failure - Multicenter Study</t>
+  </si>
+  <si>
+    <t>First Evaluation of Morphine Hydrochloride by Nebulisation Compared to Intravenous Route in Healthy Volunteers: Preliminary Study Dose</t>
+  </si>
+  <si>
+    <t>Determinism of the Mechanism of Action of Specific Immunotherapy in Hymenoptera Venom Allergy</t>
+  </si>
+  <si>
+    <t>Transcutaneous Carbon Dioxide Pressure (tcPCO2) Monitoring Vs End-tidal Partial Pressure Carbon Dioxide (PetCO2) Measurement in the Diagnosis of Hyperventilation Syndrome (HVS) (TCvsPETCO2 )</t>
+  </si>
+  <si>
+    <t>Circulating Endotoxemia After Liver Resection for Hepatocellular Carcinoma in Liver Disease - Influence of Preoperative Administration of Probiotics</t>
+  </si>
+  <si>
+    <t>Prevention of Atrial Fibrillation by Combined Right Isthmus Ablation and cryoBalloon Pulmonary Vein Isolation in Patients With Typical Atrial Flutter</t>
+  </si>
+  <si>
+    <t>AXONE -Acute : Acute Assessment of a Micro Multipolar Lead for Enhanced Cardiac Resynchronisation Therapy</t>
   </si>
   <si>
     <t>Study of Intestinal Permeability in Patients With Anorexia Nervosa</t>
-  </si>
-  <si>
-    <t>AXONE -Acute : Acute Assessment of a Micro Multipolar Lead for Enhanced Cardiac Resynchronisation Therapy</t>
-  </si>
-  <si>
-    <t>First Evaluation of Morphine Hydrochloride by Nebulisation Compared to Intravenous Route in Healthy Volunteers: Preliminary Study Dose</t>
-  </si>
-  <si>
-    <t>Transcutaneous Carbon Dioxide Pressure (tcPCO2) Monitoring Vs End-tidal Partial Pressure Carbon Dioxide (PetCO2) Measurement in the Diagnosis of Hyperventilation Syndrome (HVS) (TCvsPETCO2 )</t>
-  </si>
-  <si>
-    <t>Prevention of Atrial Fibrillation by Combined Right Isthmus Ablation and cryoBalloon Pulmonary Vein Isolation in Patients With Typical Atrial Flutter</t>
-  </si>
-  <si>
-    <t>Determinism of the Mechanism of Action of Specific Immunotherapy in Hymenoptera Venom Allergy</t>
-  </si>
-  <si>
-    <t>Circulating Endotoxemia After Liver Resection for Hepatocellular Carcinoma in Liver Disease - Influence of Preoperative Administration of Probiotics</t>
-  </si>
-  <si>
-    <t>Secondary Bilateral or Controlateral Sacral Nerve Stimulation in Overactive Bladder Patients With Unilateral Stimulation Failure - Multicenter Study</t>
-  </si>
-  <si>
-    <t>Proteomic Analysis in Sera From Patients With Erosive Hand Osteoarthritis</t>
-  </si>
-  <si>
-    <t>Randomized Study Comparing Pleural Drainage by Videothoracoscopy to Medical Drainage in Infectious Pleural Effusion</t>
   </si>
   <si>
     <t>Basophil Activation Test (BAT) Sensitivity in Child Food Allergy</t>
@@ -707,16 +701,22 @@
  Effet de la réduction pharmacologique de la fréquence cardiaque (FC) sur les propriétés viscoélastiques de la paroi artérielle – impact du vieillissement</t>
   </si>
   <si>
+    <t>Proteomic Analysis in Sera From Patients With Erosive Hand Osteoarthritis</t>
+  </si>
+  <si>
+    <t>Randomized Study Comparing Pleural Drainage by Videothoracoscopy to Medical Drainage in Infectious Pleural Effusion</t>
+  </si>
+  <si>
     <t>Double Regional Anesthesia in Video Assisted Thoracoscopy</t>
   </si>
   <si>
     <t>Study of the Vascular Compartment and Hypercoagulability During Coronavirus Infection COVID-19</t>
   </si>
   <si>
+    <t>Development of a Molecular Diagnostic Strategy for SARS-CoV2 Based on Saliva in the Context of the COVID-19 Pandemic</t>
+  </si>
+  <si>
     <t>Pilot study of aprepitant effect on aldosterone secretion in diabetic patient (diabetes mellitus) with hypertension associated with low renin</t>
-  </si>
-  <si>
-    <t>Development of a Molecular Diagnostic Strategy for SARS-CoV2 Based on Saliva in the Context of the COVID-19 Pandemic</t>
   </si>
   <si>
     <t>Study of Spino-pelvic Sagittal Balance by Vicon® Optoelectronic System - Model of Non-invasive Kyphosis</t>
@@ -744,12 +744,6 @@
  Anesthésie avec/sans opioïdes en chirurgie cardiaque</t>
   </si>
   <si>
-    <t>Effect of Glutamine on Gastric Emptying and Length of Parenteral Nutrition in Premature Neonates</t>
-  </si>
-  <si>
-    <t>Feasibility Study of 2 Parallel Phases II Pre or Postgastrectomy in Patients With Gastric Cancer (FOLFIRI-radiotherapy Plus 5 Fluorouracil-surgery or Surgery-FOLFIRI-radiotherapy Plus 5 Fluorouracil)</t>
-  </si>
-  <si>
     <t>Pilot study of the effect of a substance P antagonist, aprepitant, on aldosterone and cortisol secretions in healthy volunteers 
  ETUDE PILOTE DE L'EFFET D'UN ANTAGONISTE DE LA SUBSTANCE P, L'APREPITANT, SUR LES SECRETIONS D'ALDOSTERONE ET DE CORTISOL CHEZ LE VOLONTAIRE SAIN</t>
   </si>
@@ -765,6 +759,12 @@
  Evaluation de la réponse Immunitaire contre la souche de Neisseria meningitidis B:14,P1-7,16 chez les sujets amenés à être vaccinés par MenBVac®</t>
   </si>
   <si>
+    <t>Effect of Glutamine on Gastric Emptying and Length of Parenteral Nutrition in Premature Neonates</t>
+  </si>
+  <si>
+    <t>Feasibility Study of 2 Parallel Phases II Pre or Postgastrectomy in Patients With Gastric Cancer (FOLFIRI-radiotherapy Plus 5 Fluorouracil-surgery or Surgery-FOLFIRI-radiotherapy Plus 5 Fluorouracil)</t>
+  </si>
+  <si>
     <t>VENISE</t>
   </si>
   <si>
@@ -777,196 +777,190 @@
     <t>MYOARRAY</t>
   </si>
   <si>
+    <t>Nutri-PA</t>
+  </si>
+  <si>
+    <t>TENSIA</t>
+  </si>
+  <si>
+    <t>rTMS AVC</t>
+  </si>
+  <si>
     <t>Tunnelized KT</t>
   </si>
   <si>
-    <t>TENSIA</t>
-  </si>
-  <si>
-    <t>rTMS AVC</t>
-  </si>
-  <si>
-    <t>Nutri-PA</t>
+    <t>SCP-Comodig</t>
+  </si>
+  <si>
+    <t>SAPORO</t>
+  </si>
+  <si>
+    <t>Exten MenbVac</t>
   </si>
   <si>
     <t>Suiviritux</t>
   </si>
   <si>
-    <t>Exten MenbVac</t>
-  </si>
-  <si>
-    <t>SAPORO</t>
-  </si>
-  <si>
-    <t>SCP-Comodig</t>
+    <t>TeleMacc</t>
+  </si>
+  <si>
+    <t>TRACE</t>
+  </si>
+  <si>
+    <t>L-Lysine</t>
+  </si>
+  <si>
+    <t>Reha-Res</t>
+  </si>
+  <si>
+    <t>DIVERTI</t>
+  </si>
+  <si>
+    <t>TETRADIA-UNI</t>
+  </si>
+  <si>
+    <t>DOCC</t>
   </si>
   <si>
     <t>Rituximab2</t>
   </si>
   <si>
+    <t>AGNORIENT</t>
+  </si>
+  <si>
     <t>Code Barre</t>
   </si>
   <si>
-    <t>AGNORIENT</t>
-  </si>
-  <si>
-    <t>TRACE</t>
-  </si>
-  <si>
-    <t>TETRADIA-UNI</t>
-  </si>
-  <si>
-    <t>DOCC</t>
-  </si>
-  <si>
-    <t>DIVERTI</t>
-  </si>
-  <si>
-    <t>L-Lysine</t>
-  </si>
-  <si>
-    <t>Reha-Res</t>
-  </si>
-  <si>
-    <t>TeleMacc</t>
+    <t>Endothelin</t>
+  </si>
+  <si>
+    <t>HeartMS</t>
   </si>
   <si>
     <t>SEWORRA</t>
   </si>
   <si>
-    <t>HeartMS</t>
+    <t>TENSVIRT</t>
+  </si>
+  <si>
+    <t>EPARGNE</t>
   </si>
   <si>
     <t>CARDIOMEGA</t>
   </si>
   <si>
-    <t>TENSVIRT</t>
-  </si>
-  <si>
     <t>MICROCARD</t>
   </si>
   <si>
-    <t>EPARGNE</t>
-  </si>
-  <si>
-    <t>Endothelin</t>
+    <t>GOS</t>
   </si>
   <si>
     <t>CLARIS</t>
   </si>
   <si>
+    <t>FREINAGE3D</t>
+  </si>
+  <si>
+    <t>MIAS</t>
+  </si>
+  <si>
     <t>OBEFITT</t>
   </si>
   <si>
-    <t>MIAS</t>
+    <t>LAMOPRESCO</t>
+  </si>
+  <si>
+    <t>ENTERRA</t>
+  </si>
+  <si>
+    <t>ITOHENOX</t>
+  </si>
+  <si>
+    <t>VIRIDAE</t>
   </si>
   <si>
     <t>epidarc</t>
   </si>
   <si>
-    <t>LAMOPRESCO</t>
-  </si>
-  <si>
-    <t>ENTERRA</t>
-  </si>
-  <si>
-    <t>ITOHENOX</t>
-  </si>
-  <si>
-    <t>GOS</t>
-  </si>
-  <si>
-    <t>VIRIDAE</t>
-  </si>
-  <si>
-    <t>FREINAGE3D</t>
+    <t>NODIVEM</t>
+  </si>
+  <si>
+    <t>SEPP1B</t>
+  </si>
+  <si>
+    <t>Galectins</t>
+  </si>
+  <si>
+    <t>TIL</t>
+  </si>
+  <si>
+    <t>Coca-Colon</t>
+  </si>
+  <si>
+    <t>DIAB-EETs</t>
+  </si>
+  <si>
+    <t>VGTSA</t>
   </si>
   <si>
     <t>Rituximab 3</t>
   </si>
   <si>
+    <t>Propo-Faim</t>
+  </si>
+  <si>
     <t>PARALYSTIM</t>
   </si>
   <si>
     <t>TRANSPLANTEETs</t>
   </si>
   <si>
-    <t>NODIVEM</t>
-  </si>
-  <si>
-    <t>Galectins</t>
-  </si>
-  <si>
     <t>RECRET</t>
   </si>
   <si>
-    <t>VGTSA</t>
-  </si>
-  <si>
-    <t>TIL</t>
-  </si>
-  <si>
-    <t>Propo-Faim</t>
-  </si>
-  <si>
-    <t>Coca-Colon</t>
-  </si>
-  <si>
-    <t>DIAB-EETs</t>
-  </si>
-  <si>
-    <t>SEPP1B</t>
+    <t>CATPAR</t>
+  </si>
+  <si>
+    <t>FerHem</t>
+  </si>
+  <si>
+    <t>EPILANG2</t>
+  </si>
+  <si>
+    <t>MP3</t>
+  </si>
+  <si>
+    <t>PANEL</t>
   </si>
   <si>
     <t>Disease</t>
   </si>
   <si>
-    <t>PANEL</t>
-  </si>
-  <si>
-    <t>MP3</t>
-  </si>
-  <si>
     <t>DEMENSTIM</t>
   </si>
   <si>
-    <t>EPILANG2</t>
-  </si>
-  <si>
-    <t>FerHem</t>
-  </si>
-  <si>
-    <t>CATPAR</t>
+    <t>NEUROBIL</t>
+  </si>
+  <si>
+    <t>AEROMORPH1</t>
+  </si>
+  <si>
+    <t>MAISAVEN</t>
+  </si>
+  <si>
+    <t>TCvsPETCO2</t>
+  </si>
+  <si>
+    <t>LIPROCES</t>
+  </si>
+  <si>
+    <t>PAF CRIOBLAF</t>
+  </si>
+  <si>
+    <t>AXONE-Acute</t>
   </si>
   <si>
     <t>PIANO</t>
-  </si>
-  <si>
-    <t>AXONE-Acute</t>
-  </si>
-  <si>
-    <t>AEROMORPH1</t>
-  </si>
-  <si>
-    <t>TCvsPETCO2</t>
-  </si>
-  <si>
-    <t>PAF CRIOBLAF</t>
-  </si>
-  <si>
-    <t>MAISAVEN</t>
-  </si>
-  <si>
-    <t>LIPROCES</t>
-  </si>
-  <si>
-    <t>NEUROBIL</t>
-  </si>
-  <si>
-    <t>PASEO</t>
-  </si>
-  <si>
-    <t>VIDMED</t>
   </si>
   <si>
     <t>TAB-TPO</t>
@@ -976,16 +970,22 @@
  BRADY-VASC</t>
   </si>
   <si>
+    <t>PASEO</t>
+  </si>
+  <si>
+    <t>VIDMED</t>
+  </si>
+  <si>
     <t>DRAVATS</t>
   </si>
   <si>
     <t>COVID'HEMOS</t>
   </si>
   <si>
+    <t>MolCOVID</t>
+  </si>
+  <si>
     <t>APHOS-02</t>
-  </si>
-  <si>
-    <t>MolCOVID</t>
   </si>
   <si>
     <t>VICON-SPINE</t>
@@ -1520,8 +1520,11 @@
       <c r="G5" t="s">
         <v>148</v>
       </c>
+      <c r="H5" t="s">
+        <v>248</v>
+      </c>
       <c r="I5" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1540,11 +1543,8 @@
       <c r="G6" t="s">
         <v>149</v>
       </c>
-      <c r="H6" t="s">
-        <v>248</v>
-      </c>
       <c r="I6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1732,8 +1732,11 @@
       <c r="G15" t="s">
         <v>158</v>
       </c>
+      <c r="H15" t="s">
+        <v>252</v>
+      </c>
       <c r="I15" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1753,7 +1756,7 @@
         <v>159</v>
       </c>
       <c r="H16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I16" t="s">
         <v>335</v>
@@ -1776,10 +1779,10 @@
         <v>160</v>
       </c>
       <c r="H17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1798,11 +1801,8 @@
       <c r="G18" t="s">
         <v>161</v>
       </c>
-      <c r="H18" t="s">
-        <v>254</v>
-      </c>
       <c r="I18" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1825,7 +1825,7 @@
         <v>255</v>
       </c>
       <c r="I19" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1844,16 +1844,19 @@
       <c r="G20" t="s">
         <v>163</v>
       </c>
+      <c r="H20" t="s">
+        <v>256</v>
+      </c>
       <c r="I20" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
@@ -1864,9 +1867,6 @@
       <c r="G21" t="s">
         <v>164</v>
       </c>
-      <c r="H21" t="s">
-        <v>256</v>
-      </c>
       <c r="I21" t="s">
         <v>333</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>257</v>
       </c>
       <c r="I22" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1914,15 +1914,15 @@
         <v>258</v>
       </c>
       <c r="I23" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
@@ -1937,15 +1937,15 @@
         <v>259</v>
       </c>
       <c r="I24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
         <v>40</v>
@@ -1957,7 +1957,7 @@
         <v>168</v>
       </c>
       <c r="I25" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1976,8 +1976,11 @@
       <c r="G26" t="s">
         <v>169</v>
       </c>
+      <c r="H26" t="s">
+        <v>260</v>
+      </c>
       <c r="I26" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1996,11 +1999,8 @@
       <c r="G27" t="s">
         <v>170</v>
       </c>
-      <c r="H27" t="s">
-        <v>260</v>
-      </c>
       <c r="I27" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2010,8 +2010,8 @@
       <c r="B28" t="s">
         <v>13</v>
       </c>
-      <c r="C28" t="s">
-        <v>43</v>
+      <c r="D28" t="s">
+        <v>116</v>
       </c>
       <c r="F28" t="s">
         <v>133</v>
@@ -2022,9 +2022,6 @@
       <c r="H28" t="s">
         <v>261</v>
       </c>
-      <c r="I28" t="s">
-        <v>339</v>
-      </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
@@ -2034,7 +2031,7 @@
         <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
         <v>133</v>
@@ -2046,18 +2043,18 @@
         <v>262</v>
       </c>
       <c r="I29" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
         <v>133</v>
@@ -2065,8 +2062,11 @@
       <c r="G30" t="s">
         <v>173</v>
       </c>
+      <c r="H30" t="s">
+        <v>263</v>
+      </c>
       <c r="I30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2076,8 +2076,8 @@
       <c r="B31" t="s">
         <v>13</v>
       </c>
-      <c r="D31" t="s">
-        <v>116</v>
+      <c r="C31" t="s">
+        <v>45</v>
       </c>
       <c r="F31" t="s">
         <v>133</v>
@@ -2086,7 +2086,10 @@
         <v>174</v>
       </c>
       <c r="H31" t="s">
-        <v>263</v>
+        <v>264</v>
+      </c>
+      <c r="I31" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2106,7 +2109,7 @@
         <v>175</v>
       </c>
       <c r="H32" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I32" t="s">
         <v>335</v>
@@ -2129,7 +2132,7 @@
         <v>176</v>
       </c>
       <c r="H33" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I33" t="s">
         <v>339</v>
@@ -2152,10 +2155,10 @@
         <v>177</v>
       </c>
       <c r="H34" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I34" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2175,18 +2178,18 @@
         <v>178</v>
       </c>
       <c r="H35" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I35" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
         <v>50</v>
@@ -2197,11 +2200,8 @@
       <c r="G36" t="s">
         <v>179</v>
       </c>
-      <c r="H36" t="s">
-        <v>268</v>
-      </c>
       <c r="I36" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2224,7 +2224,7 @@
         <v>269</v>
       </c>
       <c r="I37" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2247,7 +2247,7 @@
         <v>270</v>
       </c>
       <c r="I38" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2293,7 +2293,7 @@
         <v>272</v>
       </c>
       <c r="I40" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2339,7 +2339,7 @@
         <v>274</v>
       </c>
       <c r="I42" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2362,7 +2362,7 @@
         <v>275</v>
       </c>
       <c r="I43" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2385,7 +2385,7 @@
         <v>276</v>
       </c>
       <c r="I44" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2408,7 +2408,7 @@
         <v>277</v>
       </c>
       <c r="I45" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2431,7 +2431,7 @@
         <v>278</v>
       </c>
       <c r="I46" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2447,8 +2447,14 @@
       <c r="F47" t="s">
         <v>135</v>
       </c>
+      <c r="G47" t="s">
+        <v>190</v>
+      </c>
+      <c r="H47" t="s">
+        <v>279</v>
+      </c>
       <c r="I47" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2465,10 +2471,10 @@
         <v>135</v>
       </c>
       <c r="G48" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H48" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I48" t="s">
         <v>335</v>
@@ -2487,12 +2493,6 @@
       <c r="F49" t="s">
         <v>135</v>
       </c>
-      <c r="G49" t="s">
-        <v>191</v>
-      </c>
-      <c r="H49" t="s">
-        <v>280</v>
-      </c>
       <c r="I49" t="s">
         <v>333</v>
       </c>
@@ -2517,15 +2517,15 @@
         <v>281</v>
       </c>
       <c r="I50" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C51" t="s">
         <v>65</v>
@@ -2540,15 +2540,15 @@
         <v>282</v>
       </c>
       <c r="I51" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
         <v>66</v>
@@ -2563,15 +2563,15 @@
         <v>283</v>
       </c>
       <c r="I52" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C53" t="s">
         <v>67</v>
@@ -2586,7 +2586,7 @@
         <v>284</v>
       </c>
       <c r="I53" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2632,15 +2632,15 @@
         <v>286</v>
       </c>
       <c r="I55" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C56" t="s">
         <v>70</v>
@@ -2655,15 +2655,15 @@
         <v>287</v>
       </c>
       <c r="I56" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
         <v>71</v>
@@ -2671,11 +2671,14 @@
       <c r="F57" t="s">
         <v>136</v>
       </c>
+      <c r="G57" t="s">
+        <v>199</v>
+      </c>
       <c r="H57" t="s">
         <v>288</v>
       </c>
       <c r="I57" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2692,7 +2695,7 @@
         <v>136</v>
       </c>
       <c r="G58" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H58" t="s">
         <v>289</v>
@@ -2715,21 +2718,21 @@
         <v>136</v>
       </c>
       <c r="G59" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H59" t="s">
         <v>290</v>
       </c>
       <c r="I59" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
         <v>74</v>
@@ -2737,12 +2740,6 @@
       <c r="F60" t="s">
         <v>136</v>
       </c>
-      <c r="G60" t="s">
-        <v>201</v>
-      </c>
-      <c r="H60" t="s">
-        <v>291</v>
-      </c>
       <c r="I60" t="s">
         <v>335</v>
       </c>
@@ -2754,8 +2751,8 @@
       <c r="B61" t="s">
         <v>13</v>
       </c>
-      <c r="C61" t="s">
-        <v>75</v>
+      <c r="D61" t="s">
+        <v>117</v>
       </c>
       <c r="F61" t="s">
         <v>136</v>
@@ -2764,10 +2761,7 @@
         <v>202</v>
       </c>
       <c r="H61" t="s">
-        <v>292</v>
-      </c>
-      <c r="I61" t="s">
-        <v>336</v>
+        <v>281</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2777,8 +2771,8 @@
       <c r="B62" t="s">
         <v>13</v>
       </c>
-      <c r="D62" t="s">
-        <v>117</v>
+      <c r="C62" t="s">
+        <v>75</v>
       </c>
       <c r="F62" t="s">
         <v>136</v>
@@ -2786,16 +2780,16 @@
       <c r="G62" t="s">
         <v>203</v>
       </c>
-      <c r="H62" t="s">
-        <v>278</v>
+      <c r="I62" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C63" t="s">
         <v>76</v>
@@ -2807,18 +2801,18 @@
         <v>204</v>
       </c>
       <c r="H63" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I63" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C64" t="s">
         <v>77</v>
@@ -2830,7 +2824,7 @@
         <v>205</v>
       </c>
       <c r="H64" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I64" t="s">
         <v>338</v>
@@ -2838,10 +2832,10 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C65" t="s">
         <v>78</v>
@@ -2849,16 +2843,22 @@
       <c r="F65" t="s">
         <v>136</v>
       </c>
+      <c r="G65" t="s">
+        <v>206</v>
+      </c>
+      <c r="H65" t="s">
+        <v>293</v>
+      </c>
       <c r="I65" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
         <v>79</v>
@@ -2867,10 +2867,10 @@
         <v>136</v>
       </c>
       <c r="G66" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H66" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I66" t="s">
         <v>333</v>
@@ -2890,21 +2890,21 @@
         <v>136</v>
       </c>
       <c r="G67" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H67" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I67" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C68" t="s">
         <v>81</v>
@@ -2912,22 +2912,19 @@
       <c r="F68" t="s">
         <v>136</v>
       </c>
-      <c r="G68" t="s">
-        <v>208</v>
-      </c>
       <c r="H68" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I68" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C69" t="s">
         <v>82</v>
@@ -2939,10 +2936,10 @@
         <v>209</v>
       </c>
       <c r="H69" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I69" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2961,16 +2958,19 @@
       <c r="G70" t="s">
         <v>210</v>
       </c>
+      <c r="H70" t="s">
+        <v>298</v>
+      </c>
       <c r="I70" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C71" t="s">
         <v>84</v>
@@ -2978,14 +2978,8 @@
       <c r="F71" t="s">
         <v>137</v>
       </c>
-      <c r="G71" t="s">
-        <v>211</v>
-      </c>
-      <c r="H71" t="s">
-        <v>299</v>
-      </c>
       <c r="I71" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3002,21 +2996,21 @@
         <v>137</v>
       </c>
       <c r="G72" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H72" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I72" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C73" t="s">
         <v>86</v>
@@ -3024,8 +3018,14 @@
       <c r="F73" t="s">
         <v>137</v>
       </c>
+      <c r="G73" t="s">
+        <v>212</v>
+      </c>
+      <c r="H73" t="s">
+        <v>300</v>
+      </c>
       <c r="I73" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3048,15 +3048,15 @@
         <v>301</v>
       </c>
       <c r="I74" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
         <v>88</v>
@@ -3064,22 +3064,16 @@
       <c r="F75" t="s">
         <v>137</v>
       </c>
-      <c r="G75" t="s">
-        <v>214</v>
-      </c>
-      <c r="H75" t="s">
-        <v>302</v>
-      </c>
       <c r="I75" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C76" t="s">
         <v>89</v>
@@ -3087,8 +3081,14 @@
       <c r="F76" t="s">
         <v>137</v>
       </c>
+      <c r="G76" t="s">
+        <v>214</v>
+      </c>
+      <c r="H76" t="s">
+        <v>302</v>
+      </c>
       <c r="I76" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3111,7 +3111,7 @@
         <v>303</v>
       </c>
       <c r="I77" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3139,10 +3139,10 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C79" t="s">
         <v>92</v>
@@ -3162,10 +3162,10 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C80" t="s">
         <v>93</v>
@@ -3180,15 +3180,15 @@
         <v>306</v>
       </c>
       <c r="I80" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C81" t="s">
         <v>94</v>
@@ -3203,15 +3203,15 @@
         <v>307</v>
       </c>
       <c r="I81" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C82" t="s">
         <v>95</v>
@@ -3226,7 +3226,7 @@
         <v>308</v>
       </c>
       <c r="I82" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3254,10 +3254,10 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C84" t="s">
         <v>97</v>
@@ -3272,7 +3272,7 @@
         <v>310</v>
       </c>
       <c r="I84" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3295,15 +3295,15 @@
         <v>311</v>
       </c>
       <c r="I85" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C86" t="s">
         <v>99</v>
@@ -3318,15 +3318,15 @@
         <v>312</v>
       </c>
       <c r="I86" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C87" t="s">
         <v>100</v>
@@ -3341,7 +3341,7 @@
         <v>313</v>
       </c>
       <c r="I87" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3364,7 +3364,7 @@
         <v>314</v>
       </c>
       <c r="I88" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3374,8 +3374,8 @@
       <c r="B89" t="s">
         <v>13</v>
       </c>
-      <c r="C89" t="s">
-        <v>102</v>
+      <c r="D89" t="s">
+        <v>118</v>
       </c>
       <c r="F89" t="s">
         <v>139</v>
@@ -3386,9 +3386,6 @@
       <c r="H89" t="s">
         <v>315</v>
       </c>
-      <c r="I89" t="s">
-        <v>334</v>
-      </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
@@ -3398,7 +3395,7 @@
         <v>13</v>
       </c>
       <c r="C90" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F90" t="s">
         <v>139</v>
@@ -3410,7 +3407,7 @@
         <v>316</v>
       </c>
       <c r="I90" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3420,8 +3417,8 @@
       <c r="B91" t="s">
         <v>13</v>
       </c>
-      <c r="D91" t="s">
-        <v>118</v>
+      <c r="C91" t="s">
+        <v>103</v>
       </c>
       <c r="F91" t="s">
         <v>139</v>
@@ -3432,6 +3429,9 @@
       <c r="H91" t="s">
         <v>317</v>
       </c>
+      <c r="I91" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
@@ -3486,8 +3486,8 @@
       <c r="B94" t="s">
         <v>13</v>
       </c>
-      <c r="D94" t="s">
-        <v>119</v>
+      <c r="C94" t="s">
+        <v>106</v>
       </c>
       <c r="F94" t="s">
         <v>140</v>
@@ -3498,6 +3498,9 @@
       <c r="H94" t="s">
         <v>320</v>
       </c>
+      <c r="I94" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
@@ -3506,8 +3509,8 @@
       <c r="B95" t="s">
         <v>13</v>
       </c>
-      <c r="C95" t="s">
-        <v>106</v>
+      <c r="D95" t="s">
+        <v>119</v>
       </c>
       <c r="F95" t="s">
         <v>140</v>
@@ -3517,9 +3520,6 @@
       </c>
       <c r="H95" t="s">
         <v>321</v>
-      </c>
-      <c r="I95" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3710,14 +3710,14 @@
       <c r="B104" t="s">
         <v>13</v>
       </c>
-      <c r="C104" t="s">
-        <v>114</v>
+      <c r="D104" t="s">
+        <v>121</v>
       </c>
       <c r="G104" t="s">
         <v>242</v>
       </c>
-      <c r="I104" t="s">
-        <v>337</v>
+      <c r="H104" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3727,17 +3727,14 @@
       <c r="B105" t="s">
         <v>13</v>
       </c>
-      <c r="C105" t="s">
-        <v>115</v>
+      <c r="D105" t="s">
+        <v>122</v>
       </c>
       <c r="G105" t="s">
         <v>243</v>
       </c>
       <c r="H105" t="s">
-        <v>263</v>
-      </c>
-      <c r="I105" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3748,13 +3745,13 @@
         <v>13</v>
       </c>
       <c r="D106" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G106" t="s">
         <v>244</v>
       </c>
       <c r="H106" t="s">
-        <v>250</v>
+        <v>331</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3765,13 +3762,13 @@
         <v>13</v>
       </c>
       <c r="D107" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G107" t="s">
         <v>245</v>
       </c>
       <c r="H107" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3781,14 +3778,14 @@
       <c r="B108" t="s">
         <v>13</v>
       </c>
-      <c r="D108" t="s">
-        <v>123</v>
+      <c r="C108" t="s">
+        <v>114</v>
       </c>
       <c r="G108" t="s">
         <v>246</v>
       </c>
-      <c r="H108" t="s">
-        <v>331</v>
+      <c r="I108" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3798,14 +3795,17 @@
       <c r="B109" t="s">
         <v>13</v>
       </c>
-      <c r="D109" t="s">
-        <v>124</v>
+      <c r="C109" t="s">
+        <v>115</v>
       </c>
       <c r="G109" t="s">
         <v>247</v>
       </c>
       <c r="H109" t="s">
-        <v>332</v>
+        <v>261</v>
+      </c>
+      <c r="I109" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>

--- a/publipostage2/00cxy0s05/liste_essais_cliniques_identifies_00cxy0s05.xlsx
+++ b/publipostage2/00cxy0s05/liste_essais_cliniques_identifies_00cxy0s05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="346">
   <si>
     <t>statut</t>
   </si>
@@ -55,16 +55,16 @@
     <t>1</t>
   </si>
   <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
-  </si>
-  <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
-  </si>
-  <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT00213486</t>
@@ -76,64 +76,79 @@
     <t>NCT00213434</t>
   </si>
   <si>
+    <t>NCT00213551</t>
+  </si>
+  <si>
+    <t>NCT00234234</t>
+  </si>
+  <si>
+    <t>NCT00213512</t>
+  </si>
+  <si>
     <t>NCT00213499</t>
   </si>
   <si>
-    <t>NCT00234234</t>
-  </si>
-  <si>
-    <t>NCT00213551</t>
-  </si>
-  <si>
-    <t>NCT00213512</t>
-  </si>
-  <si>
     <t>NCT02170454</t>
   </si>
   <si>
     <t>NCT00263900</t>
   </si>
   <si>
+    <t>NCT01345890</t>
+  </si>
+  <si>
     <t>NCT00389116</t>
   </si>
   <si>
+    <t>NCT00213629</t>
+  </si>
+  <si>
     <t>NCT00977223</t>
   </si>
   <si>
-    <t>NCT01345890</t>
-  </si>
-  <si>
-    <t>NCT00213629</t>
+    <t>NCT01016925</t>
+  </si>
+  <si>
+    <t>NCT00977652</t>
   </si>
   <si>
     <t>NCT00877578</t>
   </si>
   <si>
-    <t>NCT00977652</t>
+    <t>NCT00213616</t>
   </si>
   <si>
     <t>NCT01081444</t>
   </si>
   <si>
-    <t>NCT00213616</t>
-  </si>
-  <si>
-    <t>NCT01016925</t>
+    <t>NCT00620724</t>
+  </si>
+  <si>
+    <t>NCT01029275</t>
+  </si>
+  <si>
+    <t>NCT01565577</t>
+  </si>
+  <si>
+    <t>NCT01299857</t>
   </si>
   <si>
     <t>NCT01081457</t>
   </si>
   <si>
-    <t>NCT00620724</t>
-  </si>
-  <si>
-    <t>NCT01029275</t>
-  </si>
-  <si>
-    <t>NCT01565577</t>
-  </si>
-  <si>
-    <t>NCT01299857</t>
+    <t>NCT02171377</t>
+  </si>
+  <si>
+    <t>NCT01350297</t>
+  </si>
+  <si>
+    <t>NCT01220388</t>
+  </si>
+  <si>
+    <t>NCT01057953</t>
+  </si>
+  <si>
+    <t>NCT00692393</t>
   </si>
   <si>
     <t>NCT01103206</t>
@@ -145,201 +160,186 @@
     <t>NCT01801605</t>
   </si>
   <si>
-    <t>NCT01220388</t>
-  </si>
-  <si>
-    <t>NCT02171377</t>
-  </si>
-  <si>
-    <t>NCT00692393</t>
-  </si>
-  <si>
-    <t>NCT01350297</t>
-  </si>
-  <si>
-    <t>NCT01057953</t>
+    <t>NCT02320916</t>
   </si>
   <si>
     <t>NCT00525616</t>
   </si>
   <si>
+    <t>NCT02110329</t>
+  </si>
+  <si>
     <t>NCT01304576</t>
   </si>
   <si>
-    <t>NCT02320916</t>
-  </si>
-  <si>
-    <t>NCT02110329</t>
+    <t>NCT02170506</t>
+  </si>
+  <si>
+    <t>NCT01712581</t>
+  </si>
+  <si>
+    <t>NCT01765374</t>
+  </si>
+  <si>
+    <t>NCT00811915</t>
+  </si>
+  <si>
+    <t>NCT01566188</t>
   </si>
   <si>
     <t>NCT02086253</t>
   </si>
   <si>
-    <t>NCT01712581</t>
-  </si>
-  <si>
-    <t>NCT01765374</t>
-  </si>
-  <si>
-    <t>NCT02170506</t>
-  </si>
-  <si>
-    <t>NCT00811915</t>
-  </si>
-  <si>
-    <t>NCT01566188</t>
-  </si>
-  <si>
     <t>NCT01330745</t>
   </si>
   <si>
+    <t>NCT00903799</t>
+  </si>
+  <si>
+    <t>NCT02570464</t>
+  </si>
+  <si>
+    <t>NCT01523522</t>
+  </si>
+  <si>
+    <t>NCT01326416</t>
+  </si>
+  <si>
+    <t>NCT02556320</t>
+  </si>
+  <si>
+    <t>NCT01275560</t>
+  </si>
+  <si>
     <t>NCT02029859</t>
   </si>
   <si>
-    <t>NCT02570464</t>
-  </si>
-  <si>
     <t>NCT02231827</t>
   </si>
   <si>
-    <t>NCT01523522</t>
-  </si>
-  <si>
-    <t>NCT01275560</t>
-  </si>
-  <si>
-    <t>NCT01326416</t>
+    <t>NCT01707732</t>
   </si>
   <si>
     <t>NCT01426659</t>
   </si>
   <si>
-    <t>NCT00903799</t>
-  </si>
-  <si>
-    <t>NCT01707732</t>
-  </si>
-  <si>
-    <t>NCT02556320</t>
-  </si>
-  <si>
     <t>NCT01686347</t>
   </si>
   <si>
     <t>NCT01931579</t>
   </si>
   <si>
+    <t>NCT02001649</t>
+  </si>
+  <si>
+    <t>NCT01588288</t>
+  </si>
+  <si>
+    <t>NCT02311075</t>
+  </si>
+  <si>
+    <t>NCT01638845</t>
+  </si>
+  <si>
+    <t>NCT02557061</t>
+  </si>
+  <si>
+    <t>NCT02272166</t>
+  </si>
+  <si>
+    <t>NCT01610973</t>
+  </si>
+  <si>
+    <t>NCT01594463</t>
+  </si>
+  <si>
+    <t>NCT00784589</t>
+  </si>
+  <si>
+    <t>NCT02555566</t>
+  </si>
+  <si>
+    <t>NCT01212510</t>
+  </si>
+  <si>
+    <t>NCT01352910</t>
+  </si>
+  <si>
     <t>NCT02295514</t>
   </si>
   <si>
-    <t>NCT01588288</t>
-  </si>
-  <si>
-    <t>NCT02557061</t>
-  </si>
-  <si>
-    <t>NCT01638845</t>
-  </si>
-  <si>
-    <t>NCT01610973</t>
-  </si>
-  <si>
-    <t>NCT01212510</t>
-  </si>
-  <si>
-    <t>NCT02311075</t>
-  </si>
-  <si>
-    <t>NCT02001649</t>
-  </si>
-  <si>
-    <t>NCT00784589</t>
-  </si>
-  <si>
-    <t>NCT02272166</t>
-  </si>
-  <si>
-    <t>NCT01352910</t>
-  </si>
-  <si>
-    <t>NCT02555566</t>
-  </si>
-  <si>
-    <t>NCT01594463</t>
+    <t>NCT02988570</t>
+  </si>
+  <si>
+    <t>NCT01340001</t>
+  </si>
+  <si>
+    <t>NCT02353702</t>
   </si>
   <si>
     <t>NCT02920684</t>
   </si>
   <si>
-    <t>NCT02353702</t>
+    <t>NCT02004860</t>
+  </si>
+  <si>
+    <t>NCT02037191</t>
+  </si>
+  <si>
+    <t>NCT02664389</t>
   </si>
   <si>
     <t>NCT01690585</t>
   </si>
   <si>
-    <t>NCT02988570</t>
-  </si>
-  <si>
     <t>NCT02594722</t>
   </si>
   <si>
-    <t>NCT02037191</t>
-  </si>
-  <si>
-    <t>NCT02664389</t>
-  </si>
-  <si>
-    <t>NCT02004860</t>
-  </si>
-  <si>
-    <t>NCT01340001</t>
+    <t>NCT02021253</t>
+  </si>
+  <si>
+    <t>NCT01521988</t>
+  </si>
+  <si>
+    <t>NCT02295488</t>
+  </si>
+  <si>
+    <t>NCT01975753</t>
   </si>
   <si>
     <t>NCT01960270</t>
   </si>
   <si>
-    <t>NCT01975753</t>
-  </si>
-  <si>
-    <t>NCT02295488</t>
+    <t>NCT02170467</t>
+  </si>
+  <si>
+    <t>NCT03750058</t>
   </si>
   <si>
     <t>NCT03614806</t>
   </si>
   <si>
-    <t>NCT02021253</t>
-  </si>
-  <si>
-    <t>NCT01521988</t>
-  </si>
-  <si>
-    <t>NCT03750058</t>
-  </si>
-  <si>
-    <t>NCT02170467</t>
+    <t>NCT02370771</t>
+  </si>
+  <si>
+    <t>NCT01994499</t>
   </si>
   <si>
     <t>NCT01966640</t>
   </si>
   <si>
-    <t>NCT02370771</t>
-  </si>
-  <si>
-    <t>NCT01994499</t>
+    <t>NCT04367662</t>
+  </si>
+  <si>
+    <t>NCT04367545</t>
+  </si>
+  <si>
+    <t>NCT03536403</t>
   </si>
   <si>
     <t>NCT03852862</t>
   </si>
   <si>
-    <t>NCT04367662</t>
-  </si>
-  <si>
-    <t>NCT04367545</t>
-  </si>
-  <si>
-    <t>NCT03536403</t>
-  </si>
-  <si>
     <t>NCT02877654</t>
   </si>
   <si>
@@ -358,19 +358,34 @@
     <t>NCT03718312</t>
   </si>
   <si>
+    <t>NCT00512304</t>
+  </si>
+  <si>
     <t>NCT00213668</t>
   </si>
   <si>
-    <t>NCT00512304</t>
+    <t>2008-003367-40</t>
+  </si>
+  <si>
+    <t>2004-004524-12</t>
   </si>
   <si>
     <t>2006-005576-40</t>
   </si>
   <si>
+    <t>2013-004425-87</t>
+  </si>
+  <si>
+    <t>2012-001414-42</t>
+  </si>
+  <si>
     <t>2009-009155-37</t>
   </si>
   <si>
-    <t>2015-002060-17</t>
+    <t>2011-004186-32</t>
+  </si>
+  <si>
+    <t>2013-001850-83</t>
   </si>
   <si>
     <t>2015-001501-14</t>
@@ -379,9 +394,6 @@
     <t>2020-002126-90</t>
   </si>
   <si>
-    <t>2008-003367-40</t>
-  </si>
-  <si>
     <t>2011-003539-68</t>
   </si>
   <si>
@@ -460,64 +472,79 @@
     <t>Prospective Evaluation of Mandibular Advancement by Herbst Device in the Treatment of Moderate Obstructive Sleep Apnea Syndrome</t>
   </si>
   <si>
+    <t>Comparative Effects of Glutamine and Glucose on Intestinal Protein Metabolism in Healthy Humans</t>
+  </si>
+  <si>
+    <t>Predictors of the Response to Adalimumab in Rheumatoid Arthritis</t>
+  </si>
+  <si>
+    <t>Traitment of Patients Presenting Pemphigus With Anti CD20 (Mabthera).</t>
+  </si>
+  <si>
     <t>Randomized Prospective Multicenter Study of Non Invasive Ventilation Assessment for Weaning From Mechanical Ventilation in Patients With Chronic Respiratory Failure. NIV and Weaning (VENISE)Trial.</t>
   </si>
   <si>
-    <t>Predictors of the Response to Adalimumab in Rheumatoid Arthritis</t>
-  </si>
-  <si>
-    <t>Comparative Effects of Glutamine and Glucose on Intestinal Protein Metabolism in Healthy Humans</t>
-  </si>
-  <si>
-    <t>Traitment of Patients Presenting Pemphigus With Anti CD20 (Mabthera).</t>
-  </si>
-  <si>
     <t>Effect of Pharyngeal Cortical Area Inhibition Induced by rTMS on Swallowing Function in Healthy Subject: Video Fluoroscopic Study.</t>
   </si>
   <si>
     <t>Exploratory Study of the Use of the Quick Diagnostic Test of the Influenza and the Infection With RSV by the Paediatric Emergency Unit and Their Impact on the Assumption of Responsibility of the Suspect Children of a Viral Infection</t>
   </si>
   <si>
+    <t>Neuromodulation in Post Stroke Dysphagia</t>
+  </si>
+  <si>
     <t>Value of CT-Scan and Oral Gastrografin in the Management of Post Operative Small Bowel Obstruction</t>
   </si>
   <si>
+    <t>Transcriptome Analysis Through a Dedicated Macro-array and TcLandscape Repertoire Analysis for Diagnosis of Myositis.</t>
+  </si>
+  <si>
     <t>Pilot Study of the Action of the Substance P Antagonist Aprepitant on Aldosterone and Cortisol Secretion in Healthy Volunteers.</t>
   </si>
   <si>
-    <t>Neuromodulation in Post Stroke Dysphagia</t>
-  </si>
-  <si>
-    <t>Transcriptome Analysis Through a Dedicated Macro-array and TcLandscape Repertoire Analysis for Diagnosis of Myositis.</t>
+    <t>Bacterial Colonization After Tunneling in Femoral Perineural Catheters</t>
+  </si>
+  <si>
+    <t>Short Term Efficacy of Percutaneous Tibial Nerve Stimulation for the Treatment of Fecal Incontinence:Randomized Controlled Study</t>
   </si>
   <si>
     <t>Efficacy of a Special Oral Nutritional Supplement on Nutritional Status of Malnourished Elderly Patients</t>
   </si>
   <si>
-    <t>Short Term Efficacy of Percutaneous Tibial Nerve Stimulation for the Treatment of Fecal Incontinence:Randomized Controlled Study</t>
+    <t>Bilateral Laryngeal Paralysis Reinnervation. Speech and Ventilatory Results Analysis</t>
   </si>
   <si>
     <t>Effect of Pharyngeal Inhibition Induced by Repetitive Transcranial Stimulation in Post Stroke Dysphagia</t>
   </si>
   <si>
-    <t>Bilateral Laryngeal Paralysis Reinnervation. Speech and Ventilatory Results Analysis</t>
-  </si>
-  <si>
-    <t>Bacterial Colonization After Tunneling in Femoral Perineural Catheters</t>
+    <t>Maintenance Oral Nifedipine for Management of Symptomatic Placenta Previa : A Randomized Clinical Trial</t>
+  </si>
+  <si>
+    <t>Multicenter, Randomised Open Trial Comparing the Efficacy of a Medical Treatment With Sandostatin LP 30 mg Performed Before Surgery to a Prime Line transsphenoïdal Surgery in Previously Untreated Acromegalic Patients With Either a Micro or a Macro Pituitary Adenoma</t>
+  </si>
+  <si>
+    <t>Phase 3, Vaccinal Activity Assessment of MenBVac Against Nesseiria Menigitidis B:14,P1.7,16 Strain in Child Vaccinated With MenBVac®</t>
+  </si>
+  <si>
+    <t>EVALUATION CLINIQUE ET BIOLOGIQUE A LONG TERME DES PATIENTS ATTEINTS DE FORMES SEVERES DE PEMPHIGUS TRAITES PAR LE RITUXIMAB</t>
   </si>
   <si>
     <t>Effect of Deep Brain Stimulation on Voluntary and Involuntary Gastrointestinal Motility in Parkinson's Disease</t>
   </si>
   <si>
-    <t>Maintenance Oral Nifedipine for Management of Symptomatic Placenta Previa : A Randomized Clinical Trial</t>
-  </si>
-  <si>
-    <t>Multicenter, Randomised Open Trial Comparing the Efficacy of a Medical Treatment With Sandostatin LP 30 mg Performed Before Surgery to a Prime Line transsphenoïdal Surgery in Previously Untreated Acromegalic Patients With Either a Micro or a Macro Pituitary Adenoma</t>
-  </si>
-  <si>
-    <t>Phase 3, Vaccinal Activity Assessment of MenBVac Against Nesseiria Menigitidis B:14,P1.7,16 Strain in Child Vaccinated With MenBVac®</t>
-  </si>
-  <si>
-    <t>EVALUATION CLINIQUE ET BIOLOGIQUE A LONG TERME DES PATIENTS ATTEINTS DE FORMES SEVERES DE PEMPHIGUS TRAITES PAR LE RITUXIMAB</t>
+    <t>Quadricipital Electrical Stimulation in COPD Patients Rehabilitation</t>
+  </si>
+  <si>
+    <t>Phrenic Reinnervation in Central Ventilatory Paralysis Due to Medullary Trauma With Phrenic Motoneuron Destruction</t>
+  </si>
+  <si>
+    <t>Pilot Study of the Action L-lysine on Aldosterone and Cortisol Secretion in Healthy Volunteers.</t>
+  </si>
+  <si>
+    <t>Oligogenic Determinism of Colorectal Cancer</t>
+  </si>
+  <si>
+    <t>Primary vs. Secondary Anastomosis After Sigmoid Colon Resection for Perforated Diverticulitis (Hinchey Stage III and IV): a Prospective Multicentric Randomized Trial</t>
   </si>
   <si>
     <t>Evaluation of a Parathyroid Hormone Suppression Test With Cinacalcet. Comparison: 1- With the Results of the Intravenous Calcium Suppression Test in Healthy Controls; 2- Between Healthy Controls and Patients With Primary Hyperparathyroidism.</t>
@@ -532,194 +559,179 @@
     <t>Etude de faisabilité de 2 phases II parallèles pré et post-gastrectomie : étude de faisabilité d'un traitement de chimiothérapie et radiothérapie pré-opératoire de l'adénocarcinome gastrique (LV5FU2s + Irinotecan - Radiochimiothérapie + 5FU IV continu) et étude de faisabilité d'un traitement de chimiothérapie et radiothérapie post-opératoire de l'adénocarcinome gastrique (LV5FU2s + Irinotecan - Radiochimiothérapie + 5FU IV continu)</t>
   </si>
   <si>
-    <t>Pilot Study of the Action L-lysine on Aldosterone and Cortisol Secretion in Healthy Volunteers.</t>
-  </si>
-  <si>
-    <t>Quadricipital Electrical Stimulation in COPD Patients Rehabilitation</t>
-  </si>
-  <si>
-    <t>Primary vs. Secondary Anastomosis After Sigmoid Colon Resection for Perforated Diverticulitis (Hinchey Stage III and IV): a Prospective Multicentric Randomized Trial</t>
-  </si>
-  <si>
-    <t>Phrenic Reinnervation in Central Ventilatory Paralysis Due to Medullary Trauma With Phrenic Motoneuron Destruction</t>
-  </si>
-  <si>
-    <t>Oligogenic Determinism of Colorectal Cancer</t>
+    <t>A Randomized Controlled Trial on the Effect of Needle Gauge on the Pain and Anxiety Experienced During Arterial Puncture</t>
   </si>
   <si>
     <t>Assessment of Rituximab Efficiency and Tolerance in Treatment of Bullous Pemphigoid.</t>
   </si>
   <si>
+    <t>Simultaneous Detection of Somatic Quantitative Molecular Alterations Using the Qantitative Multiplex Pcr of Short Fluorescent Fragments Method (QMPSF) in Stage II-III Colon Cancer: a Prospective Study</t>
+  </si>
+  <si>
     <t>Orientation Agnosia: Neuropsychological Evaluation, Associated Symptoms, Clinical and Anatomical Correlations</t>
   </si>
   <si>
-    <t>A Randomized Controlled Trial on the Effect of Needle Gauge on the Pain and Anxiety Experienced During Arterial Puncture</t>
-  </si>
-  <si>
-    <t>Simultaneous Detection of Somatic Quantitative Molecular Alterations Using the Qantitative Multiplex Pcr of Short Fluorescent Fragments Method (QMPSF) in Stage II-III Colon Cancer: a Prospective Study</t>
+    <t>Effect of Sub-mental Sensitive Transcutaneous Electrical Stimulation on Pharyngeal Muscles Control</t>
+  </si>
+  <si>
+    <t>Determination of Myocardial Relaxation Times Values in Healthy Volunters</t>
+  </si>
+  <si>
+    <t>Study of Sonographic Efficacy of Rituximab in Rheumatoid Arthritis</t>
+  </si>
+  <si>
+    <t>A Prospective, Comparative, Multicenter, Randomized Study to Compare the Safety and Efficacy of Sirolimus (Rapamune) to Tacrolimus (Advagraf) Associated to Mycophenolate Mofetil (CellCept) Between 12 and 36 Months After Kidney Transplantation</t>
+  </si>
+  <si>
+    <t>Cardiovascular Impact of Omega-3 Dietary Supplement From Vegetal Origin in Hypertension Associated With Metabolic Syndrome</t>
   </si>
   <si>
     <t>Role of Endothelin-1 in Mediating Flow-mediated Dilatation of Conduit Arteries During Sustained Hyperemic Stimulation</t>
   </si>
   <si>
-    <t>Determination of Myocardial Relaxation Times Values in Healthy Volunters</t>
-  </si>
-  <si>
-    <t>Study of Sonographic Efficacy of Rituximab in Rheumatoid Arthritis</t>
-  </si>
-  <si>
-    <t>Effect of Sub-mental Sensitive Transcutaneous Electrical Stimulation on Pharyngeal Muscles Control</t>
-  </si>
-  <si>
-    <t>A Prospective, Comparative, Multicenter, Randomized Study to Compare the Safety and Efficacy of Sirolimus (Rapamune) to Tacrolimus (Advagraf) Associated to Mycophenolate Mofetil (CellCept) Between 12 and 36 Months After Kidney Transplantation</t>
-  </si>
-  <si>
-    <t>Cardiovascular Impact of Omega-3 Dietary Supplement From Vegetal Origin in Hypertension Associated With Metabolic Syndrome</t>
-  </si>
-  <si>
     <t>Mesenteric Microcirculatory Function Study Through Sublingual Evaluation During Cardiopulmonary Bypass</t>
   </si>
   <si>
+    <t>Clinical Efficacy and Efficiency of Gastric Electrical Stimulation (Enterra®) for Refractory Nausea and/or Vomiting</t>
+  </si>
+  <si>
+    <t>Aortic Cross-Clamping and Systemic Inflammatory Response in Humans: Effect of Ischemic Preconditioning</t>
+  </si>
+  <si>
+    <t>Etude de l'efficacité et de la sécurité d'Injections Intra-sphinctériennes de Myoblastes Autologues Chez Des Patients Atteints d'Incontinence Anale sévère Par Insuffisance sphinctérienne</t>
+  </si>
+  <si>
+    <t>Evaluation of the Impact of Physical Reconditioning Associated With Specific Nutritional Supplementation in Obese Patients Suffering From Metabolic Syndrome. OBEFITT Study.</t>
+  </si>
+  <si>
+    <t>Immunological and Viral Parameters in Patients Receiving Anti-epileptic Drugs</t>
+  </si>
+  <si>
     <t>Sleep Apnea, Obesity and Pregnancy</t>
   </si>
   <si>
-    <t>Aortic Cross-Clamping and Systemic Inflammatory Response in Humans: Effect of Ischemic Preconditioning</t>
-  </si>
-  <si>
     <t>A Study of the Balance Control During Gait : Comparison of Data Acquisition Between Force Plate and 3D Optoelectronic Gait Analysis System</t>
   </si>
   <si>
-    <t>Etude de l'efficacité et de la sécurité d'Injections Intra-sphinctériennes de Myoblastes Autologues Chez Des Patients Atteints d'Incontinence Anale sévère Par Insuffisance sphinctérienne</t>
-  </si>
-  <si>
-    <t>Evaluation of the Impact of Physical Reconditioning Associated With Specific Nutritional Supplementation in Obese Patients Suffering From Metabolic Syndrome. OBEFITT Study.</t>
+    <t>Adjusted Value of Thromboprophylaxis in Hospitalized Obese Patients: A Comparative Study of Two Regimens of Enoxaparin</t>
   </si>
   <si>
     <t>Evaluation of Language and Sensorimotor Constraints of Very Premature Babies at the Age of 3 Years 1 / 2 Without Cerebral Palsy. Randomised Study of Stimulation Training Implicit in Children Vulnerable</t>
   </si>
   <si>
-    <t>Clinical Efficacy and Efficiency of Gastric Electrical Stimulation (Enterra®) for Refractory Nausea and/or Vomiting</t>
-  </si>
-  <si>
-    <t>Adjusted Value of Thromboprophylaxis in Hospitalized Obese Patients: A Comparative Study of Two Regimens of Enoxaparin</t>
-  </si>
-  <si>
-    <t>Immunological and Viral Parameters in Patients Receiving Anti-epileptic Drugs</t>
-  </si>
-  <si>
     <t>Epidural Analgesia and Troubles of Fetal Cardiaq Rythm : Effect of the Systemic Transfer of Ropivacaine and Sufentanil</t>
   </si>
   <si>
     <t>Assessment of Probe Based Confocal Laser Endo-microscopy for In-vivo Diagnosis of Peripheral Lung Nodules and Masses. "NODIVEM" Study</t>
   </si>
   <si>
+    <t>Genetic Variants Associated With Adolescent Suicide Attempts: a Candidate-gene Association Study.</t>
+  </si>
+  <si>
+    <t>Diagnosis Interest of Galectin 3 Dosage in Nodular and Multinodular Goiter Pretreatment</t>
+  </si>
+  <si>
+    <t>Determination of the Mechanisms Involved in Conduit Artery Endothelial Dysfunction in Type 2 Diabetes</t>
+  </si>
+  <si>
+    <t>Evaluation of the impact of physical reconditioning associated with specific nutritional supplementation in obese patients suffering of metabolic syndrome.</t>
+  </si>
+  <si>
+    <t>Prognostic Value of the Lymphocytic Infiltrate in Colon Cancers</t>
+  </si>
+  <si>
+    <t>Effects of Propofol on Early Recovery of Hunger After Ambulatory Surgery Compared With Sevoflurane</t>
+  </si>
+  <si>
+    <t>Comparison of Manual and Automated Techniques in Achieving Posterior Lamellar Transplantation of the Cornea</t>
+  </si>
+  <si>
+    <t>Third Trimester Routine Ultrasound in Low-risk Pregnancies : Comparison of Two Timing Periods Procedure for Screening Intrauterine Growth Restriction</t>
+  </si>
+  <si>
+    <t>Comparison Between Monoclonal Antibody CD20 Treatment (Rituximab (mabthéra))and General Corticotherapy Treatment in Patients With Pemphigus</t>
+  </si>
+  <si>
+    <t>Role of Epoxyeicosatrienoic Acids in Chronic Allograft Nephropathy</t>
+  </si>
+  <si>
+    <t>Study of Circulating Markers in Serum of Patients Treated for Metastatic Colorectal Cancer</t>
+  </si>
+  <si>
     <t>Correlation Between PTP1B Expression and Organ Failure During Sepsis</t>
   </si>
   <si>
-    <t>Diagnosis Interest of Galectin 3 Dosage in Nodular and Multinodular Goiter Pretreatment</t>
-  </si>
-  <si>
-    <t>Prognostic Value of the Lymphocytic Infiltrate in Colon Cancers</t>
-  </si>
-  <si>
-    <t>Evaluation of the impact of physical reconditioning associated with specific nutritional supplementation in obese patients suffering of metabolic syndrome.</t>
-  </si>
-  <si>
-    <t>Comparison of Manual and Automated Techniques in Achieving Posterior Lamellar Transplantation of the Cornea</t>
-  </si>
-  <si>
-    <t>Study of Circulating Markers in Serum of Patients Treated for Metastatic Colorectal Cancer</t>
-  </si>
-  <si>
-    <t>Determination of the Mechanisms Involved in Conduit Artery Endothelial Dysfunction in Type 2 Diabetes</t>
-  </si>
-  <si>
-    <t>Genetic Variants Associated With Adolescent Suicide Attempts: a Candidate-gene Association Study.</t>
-  </si>
-  <si>
-    <t>Comparison Between Monoclonal Antibody CD20 Treatment (Rituximab (mabthéra))and General Corticotherapy Treatment in Patients With Pemphigus</t>
-  </si>
-  <si>
-    <t>Effects of Propofol on Early Recovery of Hunger After Ambulatory Surgery Compared With Sevoflurane</t>
-  </si>
-  <si>
-    <t>Role of Epoxyeicosatrienoic Acids in Chronic Allograft Nephropathy</t>
-  </si>
-  <si>
-    <t>Third Trimester Routine Ultrasound in Low-risk Pregnancies : Comparison of Two Timing Periods Procedure for Screening Intrauterine Growth Restriction</t>
+    <t>Study on the Phenotype of Language in Preterm Born Children at 5 Years of Age</t>
+  </si>
+  <si>
+    <t>Effects of Nucleus Basalis of Meynert Area Electrical Stimulation on Cognitive Behavioral Disorders in Dementia With Lewy Bodies : A Pilot Phase 1 Study</t>
   </si>
   <si>
     <t>Efficacy of Parietal Continuous Infiltration of Local Anesthesic on Diaphragmatic Function After Upper Abdominal Surgery Through a Subcostal Incision</t>
   </si>
   <si>
+    <t>Phase 3 : Tacrolimus Ointment Interest (PROTOPIC ®) in the Maintenance Treatment of Severe Seborrheic Dermatitis on Adult Face</t>
+  </si>
+  <si>
+    <t>RANDOMIZED DOUBLE-BLIND STUDY MULTICENTRIQUE TESTING THE EFFICIENCY OF the METHOTREXATE AT PATIENTS AFFECTED BY GRAVE PELADE (METHOTREXATE VERSUS PLACEBO WITH SECONDARY TREATMENT BY METHOTREXATE and PREDNISONE)</t>
+  </si>
+  <si>
+    <t>Targeted Next-generation Sequencing Panel for Identification of Germline Mutations in Early Onset Cancers With Sporadic or Hereditary Presentation</t>
+  </si>
+  <si>
     <t>Efficacy of Parenteral Iron Supplementation After Gastrointestinal Bleeding in Subjects Over 65</t>
   </si>
   <si>
-    <t>Study on the Phenotype of Language in Preterm Born Children at 5 Years of Age</t>
-  </si>
-  <si>
-    <t>RANDOMIZED DOUBLE-BLIND STUDY MULTICENTRIQUE TESTING THE EFFICIENCY OF the METHOTREXATE AT PATIENTS AFFECTED BY GRAVE PELADE (METHOTREXATE VERSUS PLACEBO WITH SECONDARY TREATMENT BY METHOTREXATE and PREDNISONE)</t>
-  </si>
-  <si>
-    <t>Targeted Next-generation Sequencing Panel for Identification of Germline Mutations in Early Onset Cancers With Sporadic or Hereditary Presentation</t>
-  </si>
-  <si>
-    <t>Phase 3 : Tacrolimus Ointment Interest (PROTOPIC ®) in the Maintenance Treatment of Severe Seborrheic Dermatitis on Adult Face</t>
-  </si>
-  <si>
-    <t>Effects of Nucleus Basalis of Meynert Area Electrical Stimulation on Cognitive Behavioral Disorders in Dementia With Lewy Bodies : A Pilot Phase 1 Study</t>
+    <t>Circulating Endotoxemia After Liver Resection for Hepatocellular Carcinoma in Liver Disease - Influence of Preoperative Administration of Probiotics</t>
+  </si>
+  <si>
+    <t>Prevention of Atrial Fibrillation by Combined Right Isthmus Ablation and cryoBalloon Pulmonary Vein Isolation in Patients With Typical Atrial Flutter</t>
+  </si>
+  <si>
+    <t>Adaptation to neonatal life  after an anesthetic protocol using remifentanil for general anesthesia for caesarean section in a context of prematurity - REAGI Protocol (Remifentanil for General Anesthesia in the context of Immaturity) 
+ Répercussions sur l'adaptation à la vie néonatale de l'utilisation du rémifentanil au cours d'un protocole d'anesthésie générale pour césarienne dans un contexte de prématurité – Protocole REAGI (REmifentanil pour Anesthésie Générale en contexte d'Immaturité)</t>
+  </si>
+  <si>
+    <t>Determinism of the Mechanism of Action of Specific Immunotherapy in Hymenoptera Venom Allergy</t>
+  </si>
+  <si>
+    <t>First Evaluation of Morphine Hydrochloride by Nebulisation Compared to Intravenous Route in Healthy Volunteers: Preliminary Study Dose</t>
   </si>
   <si>
     <t>Secondary Bilateral or Controlateral Sacral Nerve Stimulation in Overactive Bladder Patients With Unilateral Stimulation Failure - Multicenter Study</t>
   </si>
   <si>
-    <t>First Evaluation of Morphine Hydrochloride by Nebulisation Compared to Intravenous Route in Healthy Volunteers: Preliminary Study Dose</t>
-  </si>
-  <si>
-    <t>Determinism of the Mechanism of Action of Specific Immunotherapy in Hymenoptera Venom Allergy</t>
+    <t>Study of Intestinal Permeability in Patients With Anorexia Nervosa</t>
+  </si>
+  <si>
+    <t>AXONE -Acute : Acute Assessment of a Micro Multipolar Lead for Enhanced Cardiac Resynchronisation Therapy</t>
   </si>
   <si>
     <t>Transcutaneous Carbon Dioxide Pressure (tcPCO2) Monitoring Vs End-tidal Partial Pressure Carbon Dioxide (PetCO2) Measurement in the Diagnosis of Hyperventilation Syndrome (HVS) (TCvsPETCO2 )</t>
   </si>
   <si>
-    <t>Circulating Endotoxemia After Liver Resection for Hepatocellular Carcinoma in Liver Disease - Influence of Preoperative Administration of Probiotics</t>
-  </si>
-  <si>
-    <t>Prevention of Atrial Fibrillation by Combined Right Isthmus Ablation and cryoBalloon Pulmonary Vein Isolation in Patients With Typical Atrial Flutter</t>
-  </si>
-  <si>
-    <t>AXONE -Acute : Acute Assessment of a Micro Multipolar Lead for Enhanced Cardiac Resynchronisation Therapy</t>
-  </si>
-  <si>
-    <t>Study of Intestinal Permeability in Patients With Anorexia Nervosa</t>
+    <t>Proteomic Analysis in Sera From Patients With Erosive Hand Osteoarthritis</t>
+  </si>
+  <si>
+    <t>Randomized Study Comparing Pleural Drainage by Videothoracoscopy to Medical Drainage in Infectious Pleural Effusion</t>
   </si>
   <si>
     <t>Basophil Activation Test (BAT) Sensitivity in Child Food Allergy</t>
   </si>
   <si>
-    <t>Effect of pharmacological heart rate reduction on visco-elastic properties of the arterial wall - Impact of aging 
- Effet de la réduction pharmacologique de la fréquence cardiaque (FC) sur les propriétés viscoélastiques de la paroi artérielle – impact du vieillissement</t>
-  </si>
-  <si>
-    <t>Proteomic Analysis in Sera From Patients With Erosive Hand Osteoarthritis</t>
-  </si>
-  <si>
-    <t>Randomized Study Comparing Pleural Drainage by Videothoracoscopy to Medical Drainage in Infectious Pleural Effusion</t>
+    <t>Study of the Vascular Compartment and Hypercoagulability During Coronavirus Infection COVID-19</t>
+  </si>
+  <si>
+    <t>Development of a Molecular Diagnostic Strategy for SARS-CoV2 Based on Saliva in the Context of the COVID-19 Pandemic</t>
+  </si>
+  <si>
+    <t>Pilot study of aprepitant effect on aldosterone secretion in diabetic patient (diabetes mellitus) with hypertension associated with low renin</t>
+  </si>
+  <si>
+    <t>Study of Spino-pelvic Sagittal Balance by Vicon® Optoelectronic System - Model of Non-invasive Kyphosis</t>
   </si>
   <si>
     <t>Double Regional Anesthesia in Video Assisted Thoracoscopy</t>
-  </si>
-  <si>
-    <t>Study of the Vascular Compartment and Hypercoagulability During Coronavirus Infection COVID-19</t>
-  </si>
-  <si>
-    <t>Development of a Molecular Diagnostic Strategy for SARS-CoV2 Based on Saliva in the Context of the COVID-19 Pandemic</t>
-  </si>
-  <si>
-    <t>Pilot study of aprepitant effect on aldosterone secretion in diabetic patient (diabetes mellitus) with hypertension associated with low renin</t>
-  </si>
-  <si>
-    <t>Study of Spino-pelvic Sagittal Balance by Vicon® Optoelectronic System - Model of Non-invasive Kyphosis</t>
   </si>
   <si>
     <t>Assessment of Intestinal Barrier in Irritable Bowel Syndrome Patients : Is There Any Correlation Between Plasmatic Zonulin and Expression of Intestinal Tight Junction Proteins ?</t>
@@ -744,10 +756,6 @@
  Anesthésie avec/sans opioïdes en chirurgie cardiaque</t>
   </si>
   <si>
-    <t>Pilot study of the effect of a substance P antagonist, aprepitant, on aldosterone and cortisol secretions in healthy volunteers 
- ETUDE PILOTE DE L'EFFET D'UN ANTAGONISTE DE LA SUBSTANCE P, L'APREPITANT, SUR LES SECRETIONS D'ALDOSTERONE ET DE CORTISOL CHEZ LE VOLONTAIRE SAIN</t>
-  </si>
-  <si>
     <t>ETUDE PROSPECTIVE RANDOMISEE COMPARATIVE PREDNISONE/ CYCLOPHOSPHAMIDE VERSUS PREDNISONE/ RITUXIMAB AU COURS DE L'HEMOPHILIE ACQUISE</t>
   </si>
   <si>
@@ -759,46 +767,61 @@
  Evaluation de la réponse Immunitaire contre la souche de Neisseria meningitidis B:14,P1-7,16 chez les sujets amenés à être vaccinés par MenBVac®</t>
   </si>
   <si>
+    <t>Feasibility Study of 2 Parallel Phases II Pre or Postgastrectomy in Patients With Gastric Cancer (FOLFIRI-radiotherapy Plus 5 Fluorouracil-surgery or Surgery-FOLFIRI-radiotherapy Plus 5 Fluorouracil)</t>
+  </si>
+  <si>
     <t>Effect of Glutamine on Gastric Emptying and Length of Parenteral Nutrition in Premature Neonates</t>
   </si>
   <si>
-    <t>Feasibility Study of 2 Parallel Phases II Pre or Postgastrectomy in Patients With Gastric Cancer (FOLFIRI-radiotherapy Plus 5 Fluorouracil-surgery or Surgery-FOLFIRI-radiotherapy Plus 5 Fluorouracil)</t>
-  </si>
-  <si>
     <t>VENISE</t>
   </si>
   <si>
     <t>rTMSvideoSS</t>
   </si>
   <si>
+    <t>MYOARRAY</t>
+  </si>
+  <si>
     <t>APHOS</t>
   </si>
   <si>
-    <t>MYOARRAY</t>
+    <t>Tunnelized KT</t>
+  </si>
+  <si>
+    <t>TENSIA</t>
   </si>
   <si>
     <t>Nutri-PA</t>
   </si>
   <si>
-    <t>TENSIA</t>
-  </si>
-  <si>
     <t>rTMS AVC</t>
   </si>
   <si>
-    <t>Tunnelized KT</t>
+    <t>SAPORO</t>
+  </si>
+  <si>
+    <t>Exten MenbVac</t>
+  </si>
+  <si>
+    <t>Suiviritux</t>
   </si>
   <si>
     <t>SCP-Comodig</t>
   </si>
   <si>
-    <t>SAPORO</t>
-  </si>
-  <si>
-    <t>Exten MenbVac</t>
-  </si>
-  <si>
-    <t>Suiviritux</t>
+    <t>Reha-Res</t>
+  </si>
+  <si>
+    <t>TETRADIA-UNI</t>
+  </si>
+  <si>
+    <t>L-Lysine</t>
+  </si>
+  <si>
+    <t>DOCC</t>
+  </si>
+  <si>
+    <t>DIVERTI</t>
   </si>
   <si>
     <t>TeleMacc</t>
@@ -807,188 +830,173 @@
     <t>TRACE</t>
   </si>
   <si>
-    <t>L-Lysine</t>
-  </si>
-  <si>
-    <t>Reha-Res</t>
-  </si>
-  <si>
-    <t>DIVERTI</t>
-  </si>
-  <si>
-    <t>TETRADIA-UNI</t>
-  </si>
-  <si>
-    <t>DOCC</t>
-  </si>
-  <si>
     <t>Rituximab2</t>
   </si>
   <si>
+    <t>Code Barre</t>
+  </si>
+  <si>
     <t>AGNORIENT</t>
   </si>
   <si>
-    <t>Code Barre</t>
+    <t>TENSVIRT</t>
+  </si>
+  <si>
+    <t>HeartMS</t>
+  </si>
+  <si>
+    <t>SEWORRA</t>
+  </si>
+  <si>
+    <t>EPARGNE</t>
+  </si>
+  <si>
+    <t>CARDIOMEGA</t>
   </si>
   <si>
     <t>Endothelin</t>
   </si>
   <si>
-    <t>HeartMS</t>
-  </si>
-  <si>
-    <t>SEWORRA</t>
-  </si>
-  <si>
-    <t>TENSVIRT</t>
-  </si>
-  <si>
-    <t>EPARGNE</t>
-  </si>
-  <si>
-    <t>CARDIOMEGA</t>
-  </si>
-  <si>
     <t>MICROCARD</t>
   </si>
   <si>
+    <t>ENTERRA</t>
+  </si>
+  <si>
+    <t>CLARIS</t>
+  </si>
+  <si>
+    <t>MIAS</t>
+  </si>
+  <si>
+    <t>OBEFITT</t>
+  </si>
+  <si>
+    <t>VIRIDAE</t>
+  </si>
+  <si>
     <t>GOS</t>
   </si>
   <si>
-    <t>CLARIS</t>
-  </si>
-  <si>
     <t>FREINAGE3D</t>
   </si>
   <si>
-    <t>MIAS</t>
-  </si>
-  <si>
-    <t>OBEFITT</t>
+    <t>ITOHENOX</t>
   </si>
   <si>
     <t>LAMOPRESCO</t>
   </si>
   <si>
-    <t>ENTERRA</t>
-  </si>
-  <si>
-    <t>ITOHENOX</t>
-  </si>
-  <si>
-    <t>VIRIDAE</t>
-  </si>
-  <si>
     <t>epidarc</t>
   </si>
   <si>
     <t>NODIVEM</t>
   </si>
   <si>
+    <t>VGTSA</t>
+  </si>
+  <si>
+    <t>Galectins</t>
+  </si>
+  <si>
+    <t>DIAB-EETs</t>
+  </si>
+  <si>
+    <t>TIL</t>
+  </si>
+  <si>
+    <t>Propo-Faim</t>
+  </si>
+  <si>
+    <t>RECRET</t>
+  </si>
+  <si>
+    <t>Rituximab 3</t>
+  </si>
+  <si>
+    <t>TRANSPLANTEETs</t>
+  </si>
+  <si>
+    <t>Coca-Colon</t>
+  </si>
+  <si>
+    <t>PARALYSTIM</t>
+  </si>
+  <si>
     <t>SEPP1B</t>
   </si>
   <si>
-    <t>Galectins</t>
-  </si>
-  <si>
-    <t>TIL</t>
-  </si>
-  <si>
-    <t>Coca-Colon</t>
-  </si>
-  <si>
-    <t>DIAB-EETs</t>
-  </si>
-  <si>
-    <t>VGTSA</t>
-  </si>
-  <si>
-    <t>Rituximab 3</t>
-  </si>
-  <si>
-    <t>Propo-Faim</t>
-  </si>
-  <si>
-    <t>PARALYSTIM</t>
-  </si>
-  <si>
-    <t>TRANSPLANTEETs</t>
-  </si>
-  <si>
-    <t>RECRET</t>
+    <t>EPILANG2</t>
+  </si>
+  <si>
+    <t>DEMENSTIM</t>
   </si>
   <si>
     <t>CATPAR</t>
   </si>
   <si>
+    <t>Disease</t>
+  </si>
+  <si>
+    <t>MP3</t>
+  </si>
+  <si>
+    <t>PANEL</t>
+  </si>
+  <si>
     <t>FerHem</t>
   </si>
   <si>
-    <t>EPILANG2</t>
-  </si>
-  <si>
-    <t>MP3</t>
-  </si>
-  <si>
-    <t>PANEL</t>
-  </si>
-  <si>
-    <t>Disease</t>
-  </si>
-  <si>
-    <t>DEMENSTIM</t>
+    <t>LIPROCES</t>
+  </si>
+  <si>
+    <t>PAF CRIOBLAF</t>
+  </si>
+  <si>
+    <t>REAGI 
+ REAGI</t>
+  </si>
+  <si>
+    <t>MAISAVEN</t>
+  </si>
+  <si>
+    <t>AEROMORPH1</t>
   </si>
   <si>
     <t>NEUROBIL</t>
   </si>
   <si>
-    <t>AEROMORPH1</t>
-  </si>
-  <si>
-    <t>MAISAVEN</t>
+    <t>PIANO</t>
+  </si>
+  <si>
+    <t>AXONE-Acute</t>
   </si>
   <si>
     <t>TCvsPETCO2</t>
   </si>
   <si>
-    <t>LIPROCES</t>
-  </si>
-  <si>
-    <t>PAF CRIOBLAF</t>
-  </si>
-  <si>
-    <t>AXONE-Acute</t>
-  </si>
-  <si>
-    <t>PIANO</t>
+    <t>PASEO</t>
+  </si>
+  <si>
+    <t>VIDMED</t>
   </si>
   <si>
     <t>TAB-TPO</t>
   </si>
   <si>
-    <t>BRADY-VASC 
- BRADY-VASC</t>
-  </si>
-  <si>
-    <t>PASEO</t>
-  </si>
-  <si>
-    <t>VIDMED</t>
+    <t>COVID'HEMOS</t>
+  </si>
+  <si>
+    <t>MolCOVID</t>
+  </si>
+  <si>
+    <t>APHOS-02</t>
+  </si>
+  <si>
+    <t>VICON-SPINE</t>
   </si>
   <si>
     <t>DRAVATS</t>
-  </si>
-  <si>
-    <t>COVID'HEMOS</t>
-  </si>
-  <si>
-    <t>MolCOVID</t>
-  </si>
-  <si>
-    <t>APHOS-02</t>
-  </si>
-  <si>
-    <t>VICON-SPINE</t>
   </si>
   <si>
     <t>BISII</t>
@@ -1045,13 +1053,13 @@
     <t>GENETIC</t>
   </si>
   <si>
+    <t>DRUG (presumed)</t>
+  </si>
+  <si>
     <t>BEHAVIORAL</t>
   </si>
   <si>
     <t>DIAGNOSTIC_TEST</t>
-  </si>
-  <si>
-    <t>RADIATION</t>
   </si>
 </sst>
 </file>
@@ -1409,7 +1417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1455,13 +1463,13 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1475,13 +1483,13 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I3" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1495,13 +1503,13 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G4" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I4" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1515,16 +1523,13 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G5" t="s">
-        <v>148</v>
-      </c>
-      <c r="H5" t="s">
-        <v>248</v>
+        <v>152</v>
       </c>
       <c r="I5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1538,13 +1543,13 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G6" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I6" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1558,13 +1563,13 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="I7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1578,13 +1583,16 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G8" t="s">
-        <v>151</v>
+        <v>155</v>
+      </c>
+      <c r="H8" t="s">
+        <v>251</v>
       </c>
       <c r="I8" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1598,16 +1606,16 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G9" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="I9" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1621,56 +1629,53 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G10" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I10" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G11" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="I11" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G12" t="s">
-        <v>155</v>
-      </c>
-      <c r="H12" t="s">
-        <v>250</v>
+        <v>159</v>
       </c>
       <c r="I12" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1684,33 +1689,39 @@
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G13" t="s">
-        <v>156</v>
+        <v>160</v>
+      </c>
+      <c r="H13" t="s">
+        <v>253</v>
       </c>
       <c r="I13" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
       </c>
+      <c r="D14" t="s">
+        <v>116</v>
+      </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G14" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H14" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I14" t="s">
         <v>336</v>
@@ -1727,16 +1738,16 @@
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G15" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H15" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="I15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1750,16 +1761,16 @@
         <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G16" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H16" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="I16" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1773,16 +1784,16 @@
         <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G17" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H17" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="I17" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1796,13 +1807,13 @@
         <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G18" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I18" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1816,16 +1827,16 @@
         <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G19" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H19" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="I19" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1839,36 +1850,39 @@
         <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G20" t="s">
-        <v>163</v>
-      </c>
-      <c r="H20" t="s">
-        <v>256</v>
+        <v>167</v>
       </c>
       <c r="I20" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
       </c>
+      <c r="D21" t="s">
+        <v>117</v>
+      </c>
       <c r="F21" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G21" t="s">
-        <v>164</v>
+        <v>168</v>
+      </c>
+      <c r="H21" t="s">
+        <v>259</v>
       </c>
       <c r="I21" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1882,16 +1896,16 @@
         <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G22" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H22" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="I22" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1905,59 +1919,62 @@
         <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G23" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H23" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="I23" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G24" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H24" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="I24" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
         <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G25" t="s">
-        <v>168</v>
+        <v>172</v>
+      </c>
+      <c r="H25" t="s">
+        <v>263</v>
       </c>
       <c r="I25" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1971,16 +1988,16 @@
         <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G26" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H26" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="I26" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1994,13 +2011,16 @@
         <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G27" t="s">
-        <v>170</v>
+        <v>174</v>
+      </c>
+      <c r="H27" t="s">
+        <v>265</v>
       </c>
       <c r="I27" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2010,17 +2030,20 @@
       <c r="B28" t="s">
         <v>13</v>
       </c>
-      <c r="D28" t="s">
-        <v>116</v>
+      <c r="C28" t="s">
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G28" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H28" t="s">
-        <v>261</v>
+        <v>266</v>
+      </c>
+      <c r="I28" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2031,42 +2054,39 @@
         <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G29" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H29" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="I29" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G30" t="s">
-        <v>173</v>
-      </c>
-      <c r="H30" t="s">
-        <v>263</v>
+        <v>177</v>
       </c>
       <c r="I30" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2077,19 +2097,19 @@
         <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F31" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G31" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H31" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="I31" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2100,19 +2120,16 @@
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G32" t="s">
-        <v>175</v>
-      </c>
-      <c r="H32" t="s">
-        <v>265</v>
+        <v>179</v>
       </c>
       <c r="I32" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2122,43 +2139,40 @@
       <c r="B33" t="s">
         <v>13</v>
       </c>
-      <c r="C33" t="s">
-        <v>47</v>
+      <c r="D33" t="s">
+        <v>118</v>
       </c>
       <c r="F33" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G33" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H33" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="I33" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
         <v>48</v>
       </c>
       <c r="F34" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G34" t="s">
-        <v>177</v>
-      </c>
-      <c r="H34" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="I34" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2172,36 +2186,39 @@
         <v>49</v>
       </c>
       <c r="F35" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G35" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H35" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I35" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
         <v>50</v>
       </c>
       <c r="F36" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G36" t="s">
-        <v>179</v>
+        <v>183</v>
+      </c>
+      <c r="H36" t="s">
+        <v>271</v>
       </c>
       <c r="I36" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2215,13 +2232,13 @@
         <v>51</v>
       </c>
       <c r="F37" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G37" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H37" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="I37" t="s">
         <v>339</v>
@@ -2238,16 +2255,16 @@
         <v>52</v>
       </c>
       <c r="F38" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G38" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H38" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="I38" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2261,16 +2278,16 @@
         <v>53</v>
       </c>
       <c r="F39" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G39" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H39" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="I39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2284,16 +2301,16 @@
         <v>54</v>
       </c>
       <c r="F40" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G40" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H40" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="I40" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2307,16 +2324,16 @@
         <v>55</v>
       </c>
       <c r="F41" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G41" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H41" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="I41" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2330,16 +2347,16 @@
         <v>56</v>
       </c>
       <c r="F42" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G42" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H42" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="I42" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2352,17 +2369,20 @@
       <c r="C43" t="s">
         <v>57</v>
       </c>
+      <c r="D43" t="s">
+        <v>119</v>
+      </c>
       <c r="F43" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G43" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H43" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="I43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2376,39 +2396,39 @@
         <v>58</v>
       </c>
       <c r="F44" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G44" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H44" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="I44" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
         <v>59</v>
       </c>
       <c r="F45" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G45" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H45" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="I45" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2422,13 +2442,13 @@
         <v>60</v>
       </c>
       <c r="F46" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G46" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H46" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="I46" t="s">
         <v>338</v>
@@ -2436,48 +2456,48 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
         <v>61</v>
       </c>
       <c r="F47" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G47" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H47" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="I47" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
         <v>62</v>
       </c>
       <c r="F48" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G48" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H48" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="I48" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2491,10 +2511,16 @@
         <v>63</v>
       </c>
       <c r="F49" t="s">
-        <v>135</v>
+        <v>139</v>
+      </c>
+      <c r="G49" t="s">
+        <v>196</v>
+      </c>
+      <c r="H49" t="s">
+        <v>284</v>
       </c>
       <c r="I49" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2508,16 +2534,10 @@
         <v>64</v>
       </c>
       <c r="F50" t="s">
-        <v>135</v>
-      </c>
-      <c r="G50" t="s">
-        <v>192</v>
-      </c>
-      <c r="H50" t="s">
-        <v>281</v>
+        <v>139</v>
       </c>
       <c r="I50" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2531,39 +2551,39 @@
         <v>65</v>
       </c>
       <c r="F51" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G51" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H51" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="I51" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C52" t="s">
         <v>66</v>
       </c>
       <c r="F52" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G52" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H52" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I52" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2576,17 +2596,20 @@
       <c r="C53" t="s">
         <v>67</v>
       </c>
+      <c r="D53" t="s">
+        <v>120</v>
+      </c>
       <c r="F53" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G53" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H53" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="I53" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2600,16 +2623,16 @@
         <v>68</v>
       </c>
       <c r="F54" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G54" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H54" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="I54" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2623,16 +2646,16 @@
         <v>69</v>
       </c>
       <c r="F55" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G55" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H55" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I55" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2646,39 +2669,39 @@
         <v>70</v>
       </c>
       <c r="F56" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G56" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H56" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="I56" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C57" t="s">
         <v>71</v>
       </c>
       <c r="F57" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G57" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H57" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="I57" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2692,39 +2715,39 @@
         <v>72</v>
       </c>
       <c r="F58" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G58" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H58" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="I58" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C59" t="s">
         <v>73</v>
       </c>
       <c r="F59" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G59" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H59" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="I59" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2738,10 +2761,10 @@
         <v>74</v>
       </c>
       <c r="F60" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="I60" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2752,16 +2775,19 @@
         <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F61" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G61" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H61" t="s">
-        <v>281</v>
+        <v>283</v>
+      </c>
+      <c r="I61" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2775,13 +2801,16 @@
         <v>75</v>
       </c>
       <c r="F62" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G62" t="s">
-        <v>203</v>
+        <v>207</v>
+      </c>
+      <c r="H62" t="s">
+        <v>294</v>
       </c>
       <c r="I62" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2795,13 +2824,13 @@
         <v>76</v>
       </c>
       <c r="F63" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G63" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H63" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="I63" t="s">
         <v>336</v>
@@ -2809,22 +2838,19 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C64" t="s">
         <v>77</v>
       </c>
       <c r="F64" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G64" t="s">
-        <v>205</v>
-      </c>
-      <c r="H64" t="s">
-        <v>292</v>
+        <v>209</v>
       </c>
       <c r="I64" t="s">
         <v>338</v>
@@ -2841,13 +2867,13 @@
         <v>78</v>
       </c>
       <c r="F65" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G65" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H65" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="I65" t="s">
         <v>339</v>
@@ -2864,59 +2890,62 @@
         <v>79</v>
       </c>
       <c r="F66" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G66" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H66" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="I66" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C67" t="s">
         <v>80</v>
       </c>
       <c r="F67" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G67" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H67" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="I67" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C68" t="s">
         <v>81</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>140</v>
+      </c>
+      <c r="G68" t="s">
+        <v>213</v>
       </c>
       <c r="H68" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="I68" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2930,79 +2959,82 @@
         <v>82</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
-      </c>
-      <c r="G69" t="s">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="H69" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="I69" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
         <v>83</v>
       </c>
       <c r="F70" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G70" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H70" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="I70" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C71" t="s">
         <v>84</v>
       </c>
       <c r="F71" t="s">
-        <v>137</v>
+        <v>141</v>
+      </c>
+      <c r="G71" t="s">
+        <v>215</v>
+      </c>
+      <c r="H71" t="s">
+        <v>302</v>
       </c>
       <c r="I71" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C72" t="s">
         <v>85</v>
       </c>
       <c r="F72" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G72" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H72" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="I72" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3016,56 +3048,59 @@
         <v>86</v>
       </c>
       <c r="F73" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G73" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="H73" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="I73" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C74" t="s">
         <v>87</v>
       </c>
       <c r="F74" t="s">
-        <v>137</v>
-      </c>
-      <c r="G74" t="s">
-        <v>213</v>
-      </c>
-      <c r="H74" t="s">
-        <v>301</v>
+        <v>141</v>
       </c>
       <c r="I74" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C75" t="s">
         <v>88</v>
       </c>
+      <c r="D75" t="s">
+        <v>122</v>
+      </c>
       <c r="F75" t="s">
-        <v>137</v>
+        <v>141</v>
+      </c>
+      <c r="G75" t="s">
+        <v>218</v>
+      </c>
+      <c r="H75" t="s">
+        <v>305</v>
       </c>
       <c r="I75" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3079,16 +3114,16 @@
         <v>89</v>
       </c>
       <c r="F76" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G76" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="H76" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="I76" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3102,16 +3137,16 @@
         <v>90</v>
       </c>
       <c r="F77" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G77" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H77" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="I77" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3125,39 +3160,33 @@
         <v>91</v>
       </c>
       <c r="F78" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G78" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="H78" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="I78" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C79" t="s">
         <v>92</v>
       </c>
       <c r="F79" t="s">
-        <v>137</v>
-      </c>
-      <c r="G79" t="s">
-        <v>217</v>
-      </c>
-      <c r="H79" t="s">
-        <v>305</v>
+        <v>141</v>
       </c>
       <c r="I79" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3171,39 +3200,39 @@
         <v>93</v>
       </c>
       <c r="F80" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G80" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H80" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="I80" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C81" t="s">
         <v>94</v>
       </c>
       <c r="F81" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G81" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H81" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="I81" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3213,20 +3242,20 @@
       <c r="B82" t="s">
         <v>13</v>
       </c>
-      <c r="C82" t="s">
-        <v>95</v>
+      <c r="D82" t="s">
+        <v>123</v>
       </c>
       <c r="F82" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G82" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H82" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="I82" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3237,19 +3266,19 @@
         <v>13</v>
       </c>
       <c r="C83" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F83" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G83" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H83" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="I83" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3260,42 +3289,42 @@
         <v>14</v>
       </c>
       <c r="C84" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F84" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G84" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H84" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="I84" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F85" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G85" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H85" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I85" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3306,19 +3335,19 @@
         <v>13</v>
       </c>
       <c r="C86" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F86" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G86" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H86" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="I86" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3329,19 +3358,19 @@
         <v>13</v>
       </c>
       <c r="C87" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F87" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G87" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H87" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="I87" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3352,19 +3381,19 @@
         <v>13</v>
       </c>
       <c r="C88" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F88" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G88" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H88" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="I88" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3374,17 +3403,20 @@
       <c r="B89" t="s">
         <v>13</v>
       </c>
-      <c r="D89" t="s">
-        <v>118</v>
+      <c r="C89" t="s">
+        <v>101</v>
       </c>
       <c r="F89" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G89" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="H89" t="s">
-        <v>315</v>
+        <v>318</v>
+      </c>
+      <c r="I89" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3398,16 +3430,16 @@
         <v>102</v>
       </c>
       <c r="F90" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G90" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H90" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="I90" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3421,16 +3453,16 @@
         <v>103</v>
       </c>
       <c r="F91" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G91" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H91" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="I91" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3444,16 +3476,16 @@
         <v>104</v>
       </c>
       <c r="F92" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G92" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H92" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="I92" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3467,16 +3499,16 @@
         <v>105</v>
       </c>
       <c r="F93" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G93" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H93" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="I93" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3486,20 +3518,20 @@
       <c r="B94" t="s">
         <v>13</v>
       </c>
-      <c r="C94" t="s">
-        <v>106</v>
+      <c r="D94" t="s">
+        <v>124</v>
       </c>
       <c r="F94" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G94" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H94" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I94" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3509,17 +3541,20 @@
       <c r="B95" t="s">
         <v>13</v>
       </c>
-      <c r="D95" t="s">
-        <v>119</v>
+      <c r="C95" t="s">
+        <v>106</v>
       </c>
       <c r="F95" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G95" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H95" t="s">
-        <v>321</v>
+        <v>324</v>
+      </c>
+      <c r="I95" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3533,16 +3568,16 @@
         <v>107</v>
       </c>
       <c r="F96" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G96" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H96" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="I96" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3556,16 +3591,16 @@
         <v>108</v>
       </c>
       <c r="F97" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G97" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H97" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="I97" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3579,16 +3614,16 @@
         <v>109</v>
       </c>
       <c r="F98" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G98" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H98" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="I98" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3602,16 +3637,16 @@
         <v>110</v>
       </c>
       <c r="F99" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G99" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H99" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="I99" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3625,16 +3660,16 @@
         <v>111</v>
       </c>
       <c r="F100" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G100" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H100" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="I100" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3648,16 +3683,16 @@
         <v>112</v>
       </c>
       <c r="F101" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G101" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="H101" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="I101" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3671,16 +3706,16 @@
         <v>113</v>
       </c>
       <c r="F102" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G102" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H102" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="I102" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3691,16 +3726,19 @@
         <v>13</v>
       </c>
       <c r="D103" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F103" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G103" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H103" t="s">
-        <v>329</v>
+        <v>332</v>
+      </c>
+      <c r="I103" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3711,13 +3749,16 @@
         <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G104" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H104" t="s">
-        <v>250</v>
+        <v>333</v>
+      </c>
+      <c r="I104" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3728,13 +3769,16 @@
         <v>13</v>
       </c>
       <c r="D105" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G105" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H105" t="s">
-        <v>330</v>
+        <v>334</v>
+      </c>
+      <c r="I105" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3745,13 +3789,16 @@
         <v>13</v>
       </c>
       <c r="D106" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G106" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H106" t="s">
-        <v>331</v>
+        <v>335</v>
+      </c>
+      <c r="I106" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3761,14 +3808,17 @@
       <c r="B107" t="s">
         <v>13</v>
       </c>
-      <c r="D107" t="s">
-        <v>124</v>
+      <c r="C107" t="s">
+        <v>114</v>
       </c>
       <c r="G107" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="H107" t="s">
-        <v>332</v>
+        <v>269</v>
+      </c>
+      <c r="I107" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3779,33 +3829,13 @@
         <v>13</v>
       </c>
       <c r="C108" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G108" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="I108" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" t="s">
-        <v>9</v>
-      </c>
-      <c r="B109" t="s">
-        <v>13</v>
-      </c>
-      <c r="C109" t="s">
-        <v>115</v>
-      </c>
-      <c r="G109" t="s">
-        <v>247</v>
-      </c>
-      <c r="H109" t="s">
-        <v>261</v>
-      </c>
-      <c r="I109" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
